--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arithmetic.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arithmetic.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16935" windowHeight="7185" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16935" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="12" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Div" sheetId="17" r:id="rId5"/>
     <sheet name="Pow" sheetId="18" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="624">
   <si>
     <t>Result</t>
   </si>
@@ -1888,11 +1883,20 @@
   <si>
     <t>= (IntValue) (a / b)</t>
   </si>
+  <si>
+    <t>divide2</t>
+  </si>
+  <si>
+    <t>_res_.$v$divide2 (15)</t>
+  </si>
+  <si>
+    <t>_res_.$v$divide2 (34)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2057,7 +2061,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2153,6 +2157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2171,7 +2177,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ACT_H" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2446,7 +2452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2454,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L84"/>
+  <dimension ref="B3:L90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2468,13 +2474,24 @@
     <col min="10" max="12" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -2485,13 +2502,13 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -2502,13 +2519,13 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
@@ -2518,14 +2535,11 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -2536,10 +2550,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2550,34 +2564,36 @@
         <v>615</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
+      <c r="B10" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J10">
+        <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>27</v>
@@ -2586,12 +2602,10 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2607,11 +2621,11 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2629,10 +2643,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2650,10 +2664,10 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2669,10 +2683,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>616</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2687,8 +2701,12 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>616</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2702,944 +2720,1085 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="B20" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J20">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="57"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J26" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>617</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="4">
+      <c r="I29" s="1"/>
+      <c r="J29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-    </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="H30" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J30">
+        <v>0.66666666666666596</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
+      <c r="B35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J35" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>618</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="J36" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="4">
+      <c r="I39" s="1"/>
+      <c r="J39" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-    </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="B40" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="H40" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J40">
+        <v>0.66666666666666596</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="1">
-        <v>3</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J44" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>3</v>
+      <c r="B45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J45" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="4">
-        <v>0.6666666</v>
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="4">
+        <v>0.6666666</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="B50" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>5</v>
-      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="H50" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J50">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="57"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="H51" s="57"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="1">
-        <v>-1</v>
-      </c>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J54" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="4">
-        <v>0.66666666666666596</v>
+        <v>11</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>2</v>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="4">
+        <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>48</v>
+      <c r="B60" s="56" t="s">
+        <v>621</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1">
-        <v>-1</v>
-      </c>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="H60" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="57"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="H61" s="57"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1">
-        <v>6</v>
-      </c>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="4">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>2</v>
+      <c r="B68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I68" s="1"/>
       <c r="J68" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>7</v>
+        <v>619</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="1">
+        <v>69</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B70" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="H70" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="57"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="H71" s="57"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I73" s="1"/>
-      <c r="J73" s="4" t="s">
-        <v>55</v>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>2</v>
+      <c r="J78" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J79" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B80" s="56" t="s">
+        <v>621</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J81" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1">
-        <v>-1</v>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="H80" s="56" t="s">
+        <v>623</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="1">
-        <v>6</v>
-      </c>
+      <c r="J83" s="1"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="4">
+      <c r="I89" s="1"/>
+      <c r="J89" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="H90" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0.66666666666666596</v>
       </c>
     </row>
   </sheetData>
@@ -3686,14 +3845,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -5981,14 +6140,14 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -6508,14 +6667,14 @@
       </c>
     </row>
     <row r="40" spans="3:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -7106,14 +7265,14 @@
     </row>
     <row r="47" spans="3:33" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -7703,14 +7862,14 @@
       </c>
     </row>
     <row r="56" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -8300,14 +8459,14 @@
       </c>
     </row>
     <row r="64" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -8898,22 +9057,22 @@
     </row>
     <row r="71" spans="3:31" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="3:31" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="D72" s="87" t="s">
+      <c r="D72" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="E72" s="87" t="s">
+      <c r="E72" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="F72" s="87" t="s">
+      <c r="F72" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="G72" s="87" t="s">
+      <c r="G72" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="87" t="s">
+      <c r="H72" s="89" t="s">
         <v>175</v>
       </c>
       <c r="I72" s="9"/>
@@ -9459,22 +9618,22 @@
       </c>
     </row>
     <row r="80" spans="3:31" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="D80" s="87" t="s">
+      <c r="D80" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="E80" s="87" t="s">
+      <c r="E80" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="F80" s="87" t="s">
+      <c r="F80" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="G80" s="87" t="s">
+      <c r="G80" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="H80" s="87" t="s">
+      <c r="H80" s="89" t="s">
         <v>199</v>
       </c>
       <c r="I80" s="9"/>
@@ -10021,14 +10180,14 @@
     </row>
     <row r="87" spans="3:31" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -10562,14 +10721,14 @@
       </c>
     </row>
     <row r="96" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -11103,14 +11262,14 @@
       </c>
     </row>
     <row r="104" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -11644,14 +11803,14 @@
       </c>
     </row>
     <row r="112" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -12185,22 +12344,22 @@
       </c>
     </row>
     <row r="120" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="87" t="s">
+      <c r="C120" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="D120" s="87" t="s">
+      <c r="D120" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="E120" s="87" t="s">
+      <c r="E120" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="F120" s="87" t="s">
+      <c r="F120" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="G120" s="87" t="s">
+      <c r="G120" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="H120" s="87" t="s">
+      <c r="H120" s="89" t="s">
         <v>258</v>
       </c>
       <c r="I120" s="9"/>
@@ -12698,14 +12857,14 @@
       </c>
     </row>
     <row r="128" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="87" t="s">
+      <c r="C128" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="87"/>
-      <c r="H128" s="87"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -13201,22 +13360,22 @@
       </c>
     </row>
     <row r="136" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="87" t="s">
+      <c r="C136" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D136" s="87" t="s">
+      <c r="D136" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="E136" s="87" t="s">
+      <c r="E136" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="F136" s="87" t="s">
+      <c r="F136" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="G136" s="87" t="s">
+      <c r="G136" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="H136" s="87" t="s">
+      <c r="H136" s="89" t="s">
         <v>306</v>
       </c>
       <c r="I136" s="9"/>
@@ -13706,22 +13865,22 @@
       </c>
     </row>
     <row r="144" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="87" t="s">
+      <c r="C144" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="D144" s="87" t="s">
+      <c r="D144" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="E144" s="87" t="s">
+      <c r="E144" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="F144" s="87" t="s">
+      <c r="F144" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="G144" s="87" t="s">
+      <c r="G144" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="H144" s="87" t="s">
+      <c r="H144" s="89" t="s">
         <v>330</v>
       </c>
       <c r="I144" s="9"/>
@@ -14219,14 +14378,14 @@
       </c>
     </row>
     <row r="152" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="87" t="s">
+      <c r="C152" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="D152" s="87"/>
-      <c r="E152" s="87"/>
-      <c r="F152" s="87"/>
-      <c r="G152" s="87"/>
-      <c r="H152" s="87"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -14760,14 +14919,14 @@
       </c>
     </row>
     <row r="160" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="87" t="s">
+      <c r="C160" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="D160" s="87"/>
-      <c r="E160" s="87"/>
-      <c r="F160" s="87"/>
-      <c r="G160" s="87"/>
-      <c r="H160" s="87"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -15301,14 +15460,14 @@
       </c>
     </row>
     <row r="168" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="87" t="s">
+      <c r="C168" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="D168" s="87"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="87"/>
-      <c r="H168" s="87"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="89"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -15842,14 +16001,14 @@
       </c>
     </row>
     <row r="176" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="87" t="s">
+      <c r="C176" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="D176" s="87"/>
-      <c r="E176" s="87"/>
-      <c r="F176" s="87"/>
-      <c r="G176" s="87"/>
-      <c r="H176" s="87"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="89"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
@@ -16383,14 +16542,14 @@
       </c>
     </row>
     <row r="184" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="87" t="s">
+      <c r="C184" s="89" t="s">
         <v>358</v>
       </c>
-      <c r="D184" s="87"/>
-      <c r="E184" s="87"/>
-      <c r="F184" s="87"/>
-      <c r="G184" s="87"/>
-      <c r="H184" s="87"/>
+      <c r="D184" s="89"/>
+      <c r="E184" s="89"/>
+      <c r="F184" s="89"/>
+      <c r="G184" s="89"/>
+      <c r="H184" s="89"/>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
@@ -16886,14 +17045,14 @@
       </c>
     </row>
     <row r="192" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="87" t="s">
+      <c r="C192" s="89" t="s">
         <v>382</v>
       </c>
-      <c r="D192" s="87"/>
-      <c r="E192" s="87"/>
-      <c r="F192" s="87"/>
-      <c r="G192" s="87"/>
-      <c r="H192" s="87"/>
+      <c r="D192" s="89"/>
+      <c r="E192" s="89"/>
+      <c r="F192" s="89"/>
+      <c r="G192" s="89"/>
+      <c r="H192" s="89"/>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -17389,14 +17548,14 @@
       </c>
     </row>
     <row r="200" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="87" t="s">
+      <c r="C200" s="89" t="s">
         <v>406</v>
       </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="87"/>
-      <c r="F200" s="87"/>
-      <c r="G200" s="87"/>
-      <c r="H200" s="87"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89"/>
+      <c r="G200" s="89"/>
+      <c r="H200" s="89"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
@@ -17930,14 +18089,14 @@
       </c>
     </row>
     <row r="208" spans="3:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="87" t="s">
+      <c r="C208" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="D208" s="87"/>
-      <c r="E208" s="87"/>
-      <c r="F208" s="87"/>
-      <c r="G208" s="87"/>
-      <c r="H208" s="87"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="89"/>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -18549,14 +18708,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -20851,14 +21010,14 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -21376,14 +21535,14 @@
       </c>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="89" t="s">
         <v>408</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -21927,14 +22086,14 @@
       </c>
     </row>
     <row r="48" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -22478,14 +22637,14 @@
       </c>
     </row>
     <row r="56" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="89" t="s">
         <v>430</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -23029,14 +23188,14 @@
       </c>
     </row>
     <row r="64" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="91" t="s">
         <v>471</v>
       </c>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="91"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="93"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -23580,22 +23739,22 @@
       </c>
     </row>
     <row r="72" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="D72" s="87" t="s">
+      <c r="D72" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="E72" s="87" t="s">
+      <c r="E72" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="F72" s="87" t="s">
+      <c r="F72" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="G72" s="87" t="s">
+      <c r="G72" s="89" t="s">
         <v>492</v>
       </c>
-      <c r="H72" s="87" t="s">
+      <c r="H72" s="89" t="s">
         <v>492</v>
       </c>
       <c r="I72" s="9"/>
@@ -24141,22 +24300,22 @@
       </c>
     </row>
     <row r="80" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="D80" s="87" t="s">
+      <c r="D80" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="E80" s="87" t="s">
+      <c r="E80" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="F80" s="87" t="s">
+      <c r="F80" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="G80" s="87" t="s">
+      <c r="G80" s="89" t="s">
         <v>493</v>
       </c>
-      <c r="H80" s="87" t="s">
+      <c r="H80" s="89" t="s">
         <v>493</v>
       </c>
       <c r="I80" s="9"/>
@@ -24702,14 +24861,14 @@
       </c>
     </row>
     <row r="88" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="89" t="s">
         <v>498</v>
       </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -25243,14 +25402,14 @@
       </c>
     </row>
     <row r="96" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="89" t="s">
         <v>499</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -25784,14 +25943,14 @@
       </c>
     </row>
     <row r="104" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="89" t="s">
         <v>500</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -26325,14 +26484,14 @@
       </c>
     </row>
     <row r="112" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="89" t="s">
         <v>501</v>
       </c>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -26866,14 +27025,14 @@
       </c>
     </row>
     <row r="120" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C120" s="87" t="s">
+      <c r="C120" s="89" t="s">
         <v>502</v>
       </c>
-      <c r="D120" s="87"/>
-      <c r="E120" s="87"/>
-      <c r="F120" s="87"/>
-      <c r="G120" s="87"/>
-      <c r="H120" s="87"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -27369,14 +27528,14 @@
       </c>
     </row>
     <row r="128" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C128" s="87" t="s">
+      <c r="C128" s="89" t="s">
         <v>515</v>
       </c>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="87"/>
-      <c r="H128" s="87"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -27872,14 +28031,14 @@
       </c>
     </row>
     <row r="136" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C136" s="87" t="s">
+      <c r="C136" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="D136" s="87"/>
-      <c r="E136" s="87"/>
-      <c r="F136" s="87"/>
-      <c r="G136" s="87"/>
-      <c r="H136" s="87"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
+      <c r="G136" s="89"/>
+      <c r="H136" s="89"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -28373,14 +28532,14 @@
       <c r="AC143" s="16"/>
     </row>
     <row r="144" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C144" s="87" t="s">
+      <c r="C144" s="89" t="s">
         <v>517</v>
       </c>
-      <c r="D144" s="87"/>
-      <c r="E144" s="87"/>
-      <c r="F144" s="87"/>
-      <c r="G144" s="87"/>
-      <c r="H144" s="87"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="89"/>
+      <c r="G144" s="89"/>
+      <c r="H144" s="89"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -28877,14 +29036,14 @@
     </row>
     <row r="151" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C152" s="87" t="s">
+      <c r="C152" s="89" t="s">
         <v>518</v>
       </c>
-      <c r="D152" s="87"/>
-      <c r="E152" s="87"/>
-      <c r="F152" s="87"/>
-      <c r="G152" s="87"/>
-      <c r="H152" s="87"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -29419,14 +29578,14 @@
     </row>
     <row r="159" spans="3:31" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="160" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C160" s="87" t="s">
+      <c r="C160" s="89" t="s">
         <v>519</v>
       </c>
-      <c r="D160" s="87"/>
-      <c r="E160" s="87"/>
-      <c r="F160" s="87"/>
-      <c r="G160" s="87"/>
-      <c r="H160" s="87"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -29960,14 +30119,14 @@
       </c>
     </row>
     <row r="168" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C168" s="87" t="s">
+      <c r="C168" s="89" t="s">
         <v>520</v>
       </c>
-      <c r="D168" s="87"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="87"/>
-      <c r="H168" s="87"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="89"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -30501,14 +30660,14 @@
       </c>
     </row>
     <row r="176" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C176" s="87" t="s">
+      <c r="C176" s="89" t="s">
         <v>521</v>
       </c>
-      <c r="D176" s="87"/>
-      <c r="E176" s="87"/>
-      <c r="F176" s="87"/>
-      <c r="G176" s="87"/>
-      <c r="H176" s="87"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="89"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
@@ -31042,14 +31201,14 @@
       </c>
     </row>
     <row r="184" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C184" s="87" t="s">
+      <c r="C184" s="89" t="s">
         <v>522</v>
       </c>
-      <c r="D184" s="87"/>
-      <c r="E184" s="87"/>
-      <c r="F184" s="87"/>
-      <c r="G184" s="87"/>
-      <c r="H184" s="87"/>
+      <c r="D184" s="89"/>
+      <c r="E184" s="89"/>
+      <c r="F184" s="89"/>
+      <c r="G184" s="89"/>
+      <c r="H184" s="89"/>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
@@ -31545,14 +31704,14 @@
       </c>
     </row>
     <row r="192" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C192" s="87" t="s">
+      <c r="C192" s="89" t="s">
         <v>527</v>
       </c>
-      <c r="D192" s="87"/>
-      <c r="E192" s="87"/>
-      <c r="F192" s="87"/>
-      <c r="G192" s="87"/>
-      <c r="H192" s="87"/>
+      <c r="D192" s="89"/>
+      <c r="E192" s="89"/>
+      <c r="F192" s="89"/>
+      <c r="G192" s="89"/>
+      <c r="H192" s="89"/>
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
@@ -32048,14 +32207,14 @@
       </c>
     </row>
     <row r="200" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C200" s="87" t="s">
+      <c r="C200" s="89" t="s">
         <v>528</v>
       </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="87"/>
-      <c r="F200" s="87"/>
-      <c r="G200" s="87"/>
-      <c r="H200" s="87"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89"/>
+      <c r="G200" s="89"/>
+      <c r="H200" s="89"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
@@ -32589,14 +32748,14 @@
       </c>
     </row>
     <row r="208" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C208" s="87" t="s">
+      <c r="C208" s="89" t="s">
         <v>529</v>
       </c>
-      <c r="D208" s="87"/>
-      <c r="E208" s="87"/>
-      <c r="F208" s="87"/>
-      <c r="G208" s="87"/>
-      <c r="H208" s="87"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="89"/>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -33185,14 +33344,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -35502,14 +35661,14 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -36027,14 +36186,14 @@
       </c>
     </row>
     <row r="40" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="89" t="s">
         <v>530</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -36578,22 +36737,22 @@
       </c>
     </row>
     <row r="48" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="G48" s="87" t="s">
+      <c r="G48" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="H48" s="87" t="s">
+      <c r="H48" s="89" t="s">
         <v>531</v>
       </c>
       <c r="I48" s="9"/>
@@ -37170,22 +37329,22 @@
       <c r="AE55" s="18"/>
     </row>
     <row r="56" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="D56" s="87" t="s">
+      <c r="D56" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="E56" s="87" t="s">
+      <c r="E56" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="F56" s="87" t="s">
+      <c r="F56" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="G56" s="87" t="s">
+      <c r="G56" s="89" t="s">
         <v>532</v>
       </c>
-      <c r="H56" s="87" t="s">
+      <c r="H56" s="89" t="s">
         <v>532</v>
       </c>
       <c r="I56" s="9"/>
@@ -37762,22 +37921,22 @@
       <c r="AE63" s="18"/>
     </row>
     <row r="64" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="D64" s="87" t="s">
+      <c r="D64" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="E64" s="87" t="s">
+      <c r="E64" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="F64" s="87" t="s">
+      <c r="F64" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="G64" s="87" t="s">
+      <c r="G64" s="89" t="s">
         <v>533</v>
       </c>
-      <c r="H64" s="87" t="s">
+      <c r="H64" s="89" t="s">
         <v>533</v>
       </c>
       <c r="I64" s="9"/>
@@ -38324,14 +38483,14 @@
     </row>
     <row r="71" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="3:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="89" t="s">
         <v>534</v>
       </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -38876,14 +39035,14 @@
     </row>
     <row r="79" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="3:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="87" t="s">
+      <c r="C80" s="89" t="s">
         <v>540</v>
       </c>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
@@ -39428,14 +39587,14 @@
     </row>
     <row r="87" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -39969,14 +40128,14 @@
       </c>
     </row>
     <row r="96" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -40510,14 +40669,14 @@
       </c>
     </row>
     <row r="104" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="89" t="s">
         <v>543</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -41051,14 +41210,14 @@
       </c>
     </row>
     <row r="112" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="89" t="s">
         <v>544</v>
       </c>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -41592,22 +41751,22 @@
       </c>
     </row>
     <row r="120" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="87" t="s">
+      <c r="C120" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="D120" s="87" t="s">
+      <c r="D120" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="E120" s="87" t="s">
+      <c r="E120" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="F120" s="87" t="s">
+      <c r="F120" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="G120" s="87" t="s">
+      <c r="G120" s="89" t="s">
         <v>545</v>
       </c>
-      <c r="H120" s="87" t="s">
+      <c r="H120" s="89" t="s">
         <v>545</v>
       </c>
       <c r="I120" s="9"/>
@@ -42105,14 +42264,14 @@
       </c>
     </row>
     <row r="128" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="87" t="s">
+      <c r="C128" s="89" t="s">
         <v>546</v>
       </c>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="87"/>
-      <c r="H128" s="87"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -42609,22 +42768,22 @@
     </row>
     <row r="136" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B136" s="21"/>
-      <c r="C136" s="87" t="s">
+      <c r="C136" s="89" t="s">
         <v>549</v>
       </c>
-      <c r="D136" s="87" t="s">
+      <c r="D136" s="89" t="s">
         <v>549</v>
       </c>
-      <c r="E136" s="87" t="s">
+      <c r="E136" s="89" t="s">
         <v>549</v>
       </c>
-      <c r="F136" s="87" t="s">
+      <c r="F136" s="89" t="s">
         <v>549</v>
       </c>
-      <c r="G136" s="87" t="s">
+      <c r="G136" s="89" t="s">
         <v>549</v>
       </c>
-      <c r="H136" s="87" t="s">
+      <c r="H136" s="89" t="s">
         <v>549</v>
       </c>
       <c r="I136" s="9"/>
@@ -43115,22 +43274,22 @@
     </row>
     <row r="143" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="87" t="s">
+      <c r="C144" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="D144" s="87" t="s">
+      <c r="D144" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="E144" s="87" t="s">
+      <c r="E144" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="F144" s="87" t="s">
+      <c r="F144" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="G144" s="87" t="s">
+      <c r="G144" s="89" t="s">
         <v>550</v>
       </c>
-      <c r="H144" s="87" t="s">
+      <c r="H144" s="89" t="s">
         <v>550</v>
       </c>
       <c r="I144" s="9"/>
@@ -43628,14 +43787,14 @@
       </c>
     </row>
     <row r="152" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="87" t="s">
+      <c r="C152" s="89" t="s">
         <v>551</v>
       </c>
-      <c r="D152" s="87"/>
-      <c r="E152" s="87"/>
-      <c r="F152" s="87"/>
-      <c r="G152" s="87"/>
-      <c r="H152" s="87"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -44170,14 +44329,14 @@
     </row>
     <row r="159" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="160" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="87" t="s">
+      <c r="C160" s="89" t="s">
         <v>552</v>
       </c>
-      <c r="D160" s="87"/>
-      <c r="E160" s="87"/>
-      <c r="F160" s="87"/>
-      <c r="G160" s="87"/>
-      <c r="H160" s="87"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -44712,14 +44871,14 @@
     </row>
     <row r="167" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="87" t="s">
+      <c r="C168" s="89" t="s">
         <v>553</v>
       </c>
-      <c r="D168" s="87"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="87"/>
-      <c r="H168" s="87"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="89"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -45253,14 +45412,14 @@
       </c>
     </row>
     <row r="176" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="87" t="s">
+      <c r="C176" s="89" t="s">
         <v>554</v>
       </c>
-      <c r="D176" s="87"/>
-      <c r="E176" s="87"/>
-      <c r="F176" s="87"/>
-      <c r="G176" s="87"/>
-      <c r="H176" s="87"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="89"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
@@ -45794,22 +45953,22 @@
       </c>
     </row>
     <row r="184" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="87" t="s">
+      <c r="C184" s="89" t="s">
         <v>555</v>
       </c>
-      <c r="D184" s="87" t="s">
+      <c r="D184" s="89" t="s">
         <v>555</v>
       </c>
-      <c r="E184" s="87" t="s">
+      <c r="E184" s="89" t="s">
         <v>555</v>
       </c>
-      <c r="F184" s="87" t="s">
+      <c r="F184" s="89" t="s">
         <v>555</v>
       </c>
-      <c r="G184" s="87" t="s">
+      <c r="G184" s="89" t="s">
         <v>555</v>
       </c>
-      <c r="H184" s="87" t="s">
+      <c r="H184" s="89" t="s">
         <v>555</v>
       </c>
       <c r="I184" s="9"/>
@@ -46338,22 +46497,22 @@
       <c r="AE191" s="23"/>
     </row>
     <row r="192" spans="3:31" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="87" t="s">
+      <c r="C192" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="D192" s="87" t="s">
+      <c r="D192" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="E192" s="87" t="s">
+      <c r="E192" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="F192" s="87" t="s">
+      <c r="F192" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="G192" s="87" t="s">
+      <c r="G192" s="89" t="s">
         <v>556</v>
       </c>
-      <c r="H192" s="87" t="s">
+      <c r="H192" s="89" t="s">
         <v>556</v>
       </c>
       <c r="I192" s="9"/>
@@ -46852,14 +47011,14 @@
     </row>
     <row r="199" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="200" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="87" t="s">
+      <c r="C200" s="89" t="s">
         <v>559</v>
       </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="87"/>
-      <c r="F200" s="87"/>
-      <c r="G200" s="87"/>
-      <c r="H200" s="87"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89"/>
+      <c r="G200" s="89"/>
+      <c r="H200" s="89"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
@@ -47393,14 +47552,14 @@
       </c>
     </row>
     <row r="208" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="87" t="s">
+      <c r="C208" s="89" t="s">
         <v>560</v>
       </c>
-      <c r="D208" s="87"/>
-      <c r="E208" s="87"/>
-      <c r="F208" s="87"/>
-      <c r="G208" s="87"/>
-      <c r="H208" s="87"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="89"/>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -47977,7 +48136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AE227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="C168" sqref="C168:H168"/>
     </sheetView>
   </sheetViews>
@@ -48012,14 +48171,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -50329,14 +50488,14 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -50854,14 +51013,14 @@
       </c>
     </row>
     <row r="40" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="89" t="s">
         <v>561</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -51457,14 +51616,14 @@
       <c r="G47" s="23"/>
     </row>
     <row r="48" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="89" t="s">
         <v>562</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -52054,14 +52213,14 @@
       </c>
     </row>
     <row r="56" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="89" t="s">
         <v>563</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -52651,14 +52810,14 @@
       </c>
     </row>
     <row r="64" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="87" t="s">
+      <c r="C64" s="89" t="s">
         <v>564</v>
       </c>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="87"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -53248,14 +53407,14 @@
       </c>
     </row>
     <row r="72" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="89" t="s">
         <v>565</v>
       </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -53807,14 +53966,14 @@
     <row r="86" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="87" spans="3:31" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="87" t="s">
+      <c r="C88" s="89" t="s">
         <v>569</v>
       </c>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -54348,14 +54507,14 @@
       </c>
     </row>
     <row r="96" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="87" t="s">
+      <c r="C96" s="89" t="s">
         <v>570</v>
       </c>
-      <c r="D96" s="87"/>
-      <c r="E96" s="87"/>
-      <c r="F96" s="87"/>
-      <c r="G96" s="87"/>
-      <c r="H96" s="87"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
@@ -54889,14 +55048,14 @@
       </c>
     </row>
     <row r="104" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="87" t="s">
+      <c r="C104" s="89" t="s">
         <v>571</v>
       </c>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="87"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
@@ -55431,14 +55590,14 @@
     </row>
     <row r="111" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="87" t="s">
+      <c r="C112" s="89" t="s">
         <v>572</v>
       </c>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
@@ -55972,14 +56131,14 @@
       </c>
     </row>
     <row r="120" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="87" t="s">
+      <c r="C120" s="89" t="s">
         <v>573</v>
       </c>
-      <c r="D120" s="87"/>
-      <c r="E120" s="87"/>
-      <c r="F120" s="87"/>
-      <c r="G120" s="87"/>
-      <c r="H120" s="87"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
@@ -56475,14 +56634,14 @@
       </c>
     </row>
     <row r="128" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="87" t="s">
+      <c r="C128" s="89" t="s">
         <v>575</v>
       </c>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="87"/>
-      <c r="H128" s="87"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
@@ -56978,14 +57137,14 @@
       </c>
     </row>
     <row r="136" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="87" t="s">
+      <c r="C136" s="89" t="s">
         <v>577</v>
       </c>
-      <c r="D136" s="87"/>
-      <c r="E136" s="87"/>
-      <c r="F136" s="87"/>
-      <c r="G136" s="87"/>
-      <c r="H136" s="87"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
+      <c r="G136" s="89"/>
+      <c r="H136" s="89"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
@@ -57473,14 +57632,14 @@
       </c>
     </row>
     <row r="144" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="87" t="s">
+      <c r="C144" s="89" t="s">
         <v>578</v>
       </c>
-      <c r="D144" s="87"/>
-      <c r="E144" s="87"/>
-      <c r="F144" s="87"/>
-      <c r="G144" s="87"/>
-      <c r="H144" s="87"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="89"/>
+      <c r="G144" s="89"/>
+      <c r="H144" s="89"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
@@ -57976,14 +58135,14 @@
       </c>
     </row>
     <row r="152" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="87" t="s">
+      <c r="C152" s="89" t="s">
         <v>579</v>
       </c>
-      <c r="D152" s="87"/>
-      <c r="E152" s="87"/>
-      <c r="F152" s="87"/>
-      <c r="G152" s="87"/>
-      <c r="H152" s="87"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
       <c r="K152" s="9"/>
@@ -58517,14 +58676,14 @@
       </c>
     </row>
     <row r="160" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="87" t="s">
+      <c r="C160" s="89" t="s">
         <v>580</v>
       </c>
-      <c r="D160" s="87"/>
-      <c r="E160" s="87"/>
-      <c r="F160" s="87"/>
-      <c r="G160" s="87"/>
-      <c r="H160" s="87"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9"/>
@@ -59059,14 +59218,14 @@
     </row>
     <row r="167" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="87" t="s">
+      <c r="C168" s="89" t="s">
         <v>581</v>
       </c>
-      <c r="D168" s="87"/>
-      <c r="E168" s="87"/>
-      <c r="F168" s="87"/>
-      <c r="G168" s="87"/>
-      <c r="H168" s="87"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="89"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="89"/>
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
@@ -59600,14 +59759,14 @@
       </c>
     </row>
     <row r="176" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="87" t="s">
+      <c r="C176" s="89" t="s">
         <v>582</v>
       </c>
-      <c r="D176" s="87"/>
-      <c r="E176" s="87"/>
-      <c r="F176" s="87"/>
-      <c r="G176" s="87"/>
-      <c r="H176" s="87"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="89"/>
       <c r="I176" s="9"/>
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
@@ -60141,22 +60300,22 @@
       </c>
     </row>
     <row r="184" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C184" s="87" t="s">
+      <c r="C184" s="89" t="s">
         <v>583</v>
       </c>
-      <c r="D184" s="87" t="s">
+      <c r="D184" s="89" t="s">
         <v>583</v>
       </c>
-      <c r="E184" s="87" t="s">
+      <c r="E184" s="89" t="s">
         <v>583</v>
       </c>
-      <c r="F184" s="87" t="s">
+      <c r="F184" s="89" t="s">
         <v>583</v>
       </c>
-      <c r="G184" s="87" t="s">
+      <c r="G184" s="89" t="s">
         <v>583</v>
       </c>
-      <c r="H184" s="87" t="s">
+      <c r="H184" s="89" t="s">
         <v>583</v>
       </c>
       <c r="I184" s="9"/>
@@ -60685,22 +60844,22 @@
       <c r="AE191" s="56"/>
     </row>
     <row r="192" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="87" t="s">
+      <c r="C192" s="89" t="s">
         <v>584</v>
       </c>
-      <c r="D192" s="87" t="s">
+      <c r="D192" s="89" t="s">
         <v>584</v>
       </c>
-      <c r="E192" s="87" t="s">
+      <c r="E192" s="89" t="s">
         <v>584</v>
       </c>
-      <c r="F192" s="87" t="s">
+      <c r="F192" s="89" t="s">
         <v>584</v>
       </c>
-      <c r="G192" s="87" t="s">
+      <c r="G192" s="89" t="s">
         <v>584</v>
       </c>
-      <c r="H192" s="87" t="s">
+      <c r="H192" s="89" t="s">
         <v>584</v>
       </c>
       <c r="I192" s="9"/>
@@ -61199,14 +61358,14 @@
     </row>
     <row r="199" spans="3:31" s="57" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="200" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="87" t="s">
+      <c r="C200" s="89" t="s">
         <v>585</v>
       </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="87"/>
-      <c r="F200" s="87"/>
-      <c r="G200" s="87"/>
-      <c r="H200" s="87"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="89"/>
+      <c r="G200" s="89"/>
+      <c r="H200" s="89"/>
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
@@ -61718,14 +61877,14 @@
     </row>
     <row r="207" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="208" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C208" s="87" t="s">
+      <c r="C208" s="89" t="s">
         <v>586</v>
       </c>
-      <c r="D208" s="87"/>
-      <c r="E208" s="87"/>
-      <c r="F208" s="87"/>
-      <c r="G208" s="87"/>
-      <c r="H208" s="87"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="89"/>
+      <c r="H208" s="89"/>
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
@@ -62275,22 +62434,22 @@
       <c r="AD217" s="28"/>
     </row>
     <row r="219" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B219" s="87" t="s">
+      <c r="B219" s="89" t="s">
         <v>568</v>
       </c>
-      <c r="C219" s="87" t="s">
+      <c r="C219" s="89" t="s">
         <v>568</v>
       </c>
-      <c r="D219" s="87" t="s">
+      <c r="D219" s="89" t="s">
         <v>568</v>
       </c>
-      <c r="E219" s="87" t="s">
+      <c r="E219" s="89" t="s">
         <v>568</v>
       </c>
-      <c r="F219" s="87" t="s">
+      <c r="F219" s="89" t="s">
         <v>568</v>
       </c>
-      <c r="G219" s="87" t="s">
+      <c r="G219" s="89" t="s">
         <v>568</v>
       </c>
       <c r="H219" s="9"/>
@@ -62937,14 +63096,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -65232,14 +65391,14 @@
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arithmetic.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arithmetic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16935" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16935" windowHeight="7185" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="12" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Mul" sheetId="16" r:id="rId4"/>
     <sheet name="Div" sheetId="17" r:id="rId5"/>
     <sheet name="Pow" sheetId="18" r:id="rId6"/>
+    <sheet name="unary" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="629">
   <si>
     <t>Result</t>
   </si>
@@ -1892,6 +1893,21 @@
   <si>
     <t>_res_.$v$divide2 (34)</t>
   </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult unary (long v1, double v2, Long v3, Double v4, BigInteger v5, BigDecimal v6)</t>
+  </si>
+  <si>
+    <t>Test unary negTest</t>
+  </si>
+  <si>
+    <t>Test unary posTest</t>
+  </si>
 </sst>
 </file>
 
@@ -2452,7 +2468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2462,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2583,6 +2599,9 @@
       <c r="J10">
         <v>0.66666666666666596</v>
       </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="87"/>
@@ -18639,14 +18658,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C184:H184"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C176:H176"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C208:H208"/>
     <mergeCell ref="C64:H64"/>
@@ -18663,6 +18674,14 @@
     <mergeCell ref="C128:H128"/>
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C184:H184"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C176:H176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33275,14 +33294,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C184:H184"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C144:H144"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C176:H176"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C208:H208"/>
     <mergeCell ref="H3:M3"/>
@@ -33299,6 +33310,14 @@
     <mergeCell ref="C56:H56"/>
     <mergeCell ref="C112:H112"/>
     <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C184:H184"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C176:H176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48102,6 +48121,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C72:H72"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C208:H208"/>
     <mergeCell ref="C104:H104"/>
@@ -48116,16 +48145,6 @@
     <mergeCell ref="C160:H160"/>
     <mergeCell ref="C168:H168"/>
     <mergeCell ref="C120:H120"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C72:H72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63027,20 +63046,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="C200:H200"/>
-    <mergeCell ref="C208:H208"/>
-    <mergeCell ref="C152:H152"/>
-    <mergeCell ref="C160:H160"/>
-    <mergeCell ref="C168:H168"/>
-    <mergeCell ref="C176:H176"/>
-    <mergeCell ref="C184:H184"/>
-    <mergeCell ref="C192:H192"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C56:H56"/>
     <mergeCell ref="C144:H144"/>
     <mergeCell ref="C136:H136"/>
     <mergeCell ref="C128:H128"/>
@@ -63051,6 +63056,20 @@
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C96:H96"/>
     <mergeCell ref="C104:H104"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="C200:H200"/>
+    <mergeCell ref="C208:H208"/>
+    <mergeCell ref="C152:H152"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C168:H168"/>
+    <mergeCell ref="C176:H176"/>
+    <mergeCell ref="C184:H184"/>
+    <mergeCell ref="C192:H192"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -65925,4 +65944,1345 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AF27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="2.140625" style="56" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.7109375" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="5.7109375" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="18.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="17.85546875" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="18.7109375" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.85546875" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="18.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.5703125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.7109375" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.140625" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="20" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.140625" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.7109375" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.85546875" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.42578125" style="56" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="56" collapsed="1"/>
+    <col min="32" max="32" width="9.140625" style="56"/>
+    <col min="33" max="16384" width="9.140625" style="56" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="90" t="s">
+        <v>626</v>
+      </c>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H4" s="6"/>
+      <c r="I4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="X4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="56" t="s">
+        <v>624</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>"=-$Y"</f>
+        <v>=-$Y</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" ref="J6:AD6" si="0">"=-$Y"</f>
+        <v>=-$Y</v>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="L6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="T6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="V6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="W6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="X6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="Y6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="Z6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="AA6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="AB6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="AC6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="AD6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>=-$Y</v>
+      </c>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H7" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>"=+$Y"</f>
+        <v>=+$Y</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" ref="J7:AD7" si="1">"=+$Y"</f>
+        <v>=+$Y</v>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="S7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="T7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="V7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="W7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="X7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="Y7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="Z7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="AA7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="AB7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="AC7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+      <c r="AD7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>=+$Y</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C12" s="89" t="s">
+        <v>627</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="9" t="str">
+        <f>"_res_.$"&amp;I$4&amp;"$neg"</f>
+        <v>_res_.$b2$neg</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f t="shared" ref="J13:AD13" si="2">"_res_.$"&amp;J$4&amp;"$neg"</f>
+        <v>_res_.$s2$neg</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$i2$neg</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$l2$neg</v>
+      </c>
+      <c r="M13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$f2$neg</v>
+      </c>
+      <c r="N13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$d2$neg</v>
+      </c>
+      <c r="O13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$B2$neg</v>
+      </c>
+      <c r="P13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$S2$neg</v>
+      </c>
+      <c r="Q13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$I2$neg</v>
+      </c>
+      <c r="R13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$L2$neg</v>
+      </c>
+      <c r="S13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$F2$neg</v>
+      </c>
+      <c r="T13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$D2$neg</v>
+      </c>
+      <c r="U13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$BI2$neg</v>
+      </c>
+      <c r="V13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$BD2$neg</v>
+      </c>
+      <c r="W13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$BV2$neg</v>
+      </c>
+      <c r="X13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$SV2$neg</v>
+      </c>
+      <c r="Y13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$IV2$neg</v>
+      </c>
+      <c r="Z13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$LV2$neg</v>
+      </c>
+      <c r="AA13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$FV2$neg</v>
+      </c>
+      <c r="AB13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$DV2$neg</v>
+      </c>
+      <c r="AC13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$BIV2$neg</v>
+      </c>
+      <c r="AD13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>_res_.$BDV2$neg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f t="shared" ref="I14:AD14" si="3">I$4</f>
+        <v>b2</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>s2</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>i2</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>l2</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>f2</v>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>d2</v>
+      </c>
+      <c r="O14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>B2</v>
+      </c>
+      <c r="P14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>S2</v>
+      </c>
+      <c r="Q14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>I2</v>
+      </c>
+      <c r="R14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>L2</v>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>F2</v>
+      </c>
+      <c r="T14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>D2</v>
+      </c>
+      <c r="U14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>BI2</v>
+      </c>
+      <c r="V14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>BD2</v>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>BV2</v>
+      </c>
+      <c r="X14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>SV2</v>
+      </c>
+      <c r="Y14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>IV2</v>
+      </c>
+      <c r="Z14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>LV2</v>
+      </c>
+      <c r="AA14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>FV2</v>
+      </c>
+      <c r="AB14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>DV2</v>
+      </c>
+      <c r="AC14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>BIV2</v>
+      </c>
+      <c r="AD14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>BDV2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E15" s="9">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G15" s="9">
+        <v>67</v>
+      </c>
+      <c r="H15" s="9">
+        <v>13.65</v>
+      </c>
+      <c r="I15" s="9">
+        <v>-3</v>
+      </c>
+      <c r="J15" s="9">
+        <v>-3</v>
+      </c>
+      <c r="K15" s="9">
+        <v>-3</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-3</v>
+      </c>
+      <c r="M15" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="N15" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="P15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="R15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="S15" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="T15" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="U15" s="9">
+        <v>-67</v>
+      </c>
+      <c r="V15" s="9">
+        <v>-13.65</v>
+      </c>
+      <c r="W15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="X15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>-34</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>-67</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>-13.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C16" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-34</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-67</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-13.65</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>3</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3</v>
+      </c>
+      <c r="M16" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O16" s="9">
+        <v>34</v>
+      </c>
+      <c r="P16" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>34</v>
+      </c>
+      <c r="R16" s="9">
+        <v>34</v>
+      </c>
+      <c r="S16" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T16" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U16" s="9">
+        <v>67</v>
+      </c>
+      <c r="V16" s="9">
+        <v>13.65</v>
+      </c>
+      <c r="W16" s="9">
+        <v>34</v>
+      </c>
+      <c r="X16" s="9">
+        <v>34</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>34</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>34</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>67</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C22" s="89" t="s">
+        <v>628</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f>"_res_.$"&amp;I$4&amp;"$pos"</f>
+        <v>_res_.$b2$pos</v>
+      </c>
+      <c r="J23" s="9" t="str">
+        <f t="shared" ref="J23:AD23" si="4">"_res_.$"&amp;J$4&amp;"$pos"</f>
+        <v>_res_.$s2$pos</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$i2$pos</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$l2$pos</v>
+      </c>
+      <c r="M23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$f2$pos</v>
+      </c>
+      <c r="N23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$d2$pos</v>
+      </c>
+      <c r="O23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$B2$pos</v>
+      </c>
+      <c r="P23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$S2$pos</v>
+      </c>
+      <c r="Q23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$I2$pos</v>
+      </c>
+      <c r="R23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$L2$pos</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$F2$pos</v>
+      </c>
+      <c r="T23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$D2$pos</v>
+      </c>
+      <c r="U23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$BI2$pos</v>
+      </c>
+      <c r="V23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$BD2$pos</v>
+      </c>
+      <c r="W23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$BV2$pos</v>
+      </c>
+      <c r="X23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$SV2$pos</v>
+      </c>
+      <c r="Y23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$IV2$pos</v>
+      </c>
+      <c r="Z23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$LV2$pos</v>
+      </c>
+      <c r="AA23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$FV2$pos</v>
+      </c>
+      <c r="AB23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$DV2$pos</v>
+      </c>
+      <c r="AC23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$BIV2$pos</v>
+      </c>
+      <c r="AD23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>_res_.$BDV2$pos</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" ref="I24:AD24" si="5">I$4</f>
+        <v>b2</v>
+      </c>
+      <c r="J24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>s2</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>i2</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>l2</v>
+      </c>
+      <c r="M24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>f2</v>
+      </c>
+      <c r="N24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>d2</v>
+      </c>
+      <c r="O24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>B2</v>
+      </c>
+      <c r="P24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>S2</v>
+      </c>
+      <c r="Q24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>I2</v>
+      </c>
+      <c r="R24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>L2</v>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>F2</v>
+      </c>
+      <c r="T24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>D2</v>
+      </c>
+      <c r="U24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>BI2</v>
+      </c>
+      <c r="V24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>BD2</v>
+      </c>
+      <c r="W24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>BV2</v>
+      </c>
+      <c r="X24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>SV2</v>
+      </c>
+      <c r="Y24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>IV2</v>
+      </c>
+      <c r="Z24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LV2</v>
+      </c>
+      <c r="AA24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>FV2</v>
+      </c>
+      <c r="AB24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>DV2</v>
+      </c>
+      <c r="AC24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>BIV2</v>
+      </c>
+      <c r="AD24" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>BDV2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="9">
+        <v>34</v>
+      </c>
+      <c r="F25" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G25" s="9">
+        <v>67</v>
+      </c>
+      <c r="H25" s="9">
+        <v>13.65</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>3</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3</v>
+      </c>
+      <c r="L25" s="9">
+        <v>3</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O25" s="9">
+        <v>34</v>
+      </c>
+      <c r="P25" s="9">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>34</v>
+      </c>
+      <c r="R25" s="9">
+        <v>34</v>
+      </c>
+      <c r="S25" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T25" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U25" s="9">
+        <v>67</v>
+      </c>
+      <c r="V25" s="9">
+        <v>13.65</v>
+      </c>
+      <c r="W25" s="9">
+        <v>34</v>
+      </c>
+      <c r="X25" s="9">
+        <v>34</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>34</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>34</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>67</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C26" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="F26" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="G26" s="9">
+        <v>-67</v>
+      </c>
+      <c r="H26" s="9">
+        <v>-13.65</v>
+      </c>
+      <c r="I26" s="9">
+        <v>-3</v>
+      </c>
+      <c r="J26" s="9">
+        <v>-3</v>
+      </c>
+      <c r="K26" s="9">
+        <v>-3</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-3</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="N26" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="P26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="R26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="S26" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="T26" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="U26" s="9">
+        <v>-67</v>
+      </c>
+      <c r="V26" s="9">
+        <v>-13.65</v>
+      </c>
+      <c r="W26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="X26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>-34</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>-67</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>-13.65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C22:H22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arithmetic.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arithmetic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16935" windowHeight="7185" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16935" windowHeight="7185" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="12" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
   <dimension ref="A3:AE214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33329,7 +33329,7 @@
   <dimension ref="A3:AE214"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M222" sqref="M222"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36536,54 +36536,22 @@
       <c r="O44" s="9">
         <v>112.8</v>
       </c>
-      <c r="P44" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>6</v>
-      </c>
-      <c r="R44" s="9">
-        <v>6</v>
-      </c>
-      <c r="S44" s="9">
-        <v>6</v>
-      </c>
-      <c r="T44" s="9">
-        <v>6</v>
-      </c>
-      <c r="U44" s="9">
-        <v>6</v>
-      </c>
-      <c r="V44" s="9">
-        <v>6</v>
-      </c>
-      <c r="W44" s="9">
-        <v>6</v>
-      </c>
-      <c r="X44" s="9">
-        <v>6</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB44" s="9">
-        <v>6</v>
-      </c>
-      <c r="AC44" s="9">
-        <v>6</v>
-      </c>
-      <c r="AD44" s="9">
-        <v>6</v>
-      </c>
-      <c r="AE44" s="9">
-        <v>6</v>
-      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
     </row>
     <row r="45" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="9">
@@ -36633,18 +36601,12 @@
       <c r="S45" s="9">
         <v>20</v>
       </c>
-      <c r="T45" s="9">
-        <v>-4</v>
-      </c>
-      <c r="U45" s="9">
-        <v>-4</v>
-      </c>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
       <c r="V45" s="9">
         <v>28</v>
       </c>
-      <c r="W45" s="9">
-        <v>-4</v>
-      </c>
+      <c r="W45" s="9"/>
       <c r="X45" s="9">
         <v>20</v>
       </c>
@@ -36657,18 +36619,12 @@
       <c r="AA45" s="9">
         <v>20</v>
       </c>
-      <c r="AB45" s="9">
-        <v>-4</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
       <c r="AD45" s="9">
         <v>28</v>
       </c>
-      <c r="AE45" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AE45" s="9"/>
     </row>
     <row r="46" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
@@ -36706,51 +36662,31 @@
       <c r="O46" s="9">
         <v>-16.8</v>
       </c>
-      <c r="P46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
       <c r="T46" s="9">
         <v>9.9</v>
       </c>
       <c r="U46" s="9">
         <v>9.9</v>
       </c>
-      <c r="V46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V46" s="9"/>
       <c r="W46" s="9">
         <v>-7.8</v>
       </c>
-      <c r="X46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <v>9.9</v>
       </c>
       <c r="AC46" s="9">
         <v>9.9</v>
       </c>
-      <c r="AD46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD46" s="9"/>
       <c r="AE46" s="9">
         <v>-7.8</v>
       </c>
@@ -37097,54 +37033,22 @@
       <c r="O52" s="9">
         <v>112.8</v>
       </c>
-      <c r="P52" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>6</v>
-      </c>
-      <c r="R52" s="9">
-        <v>6</v>
-      </c>
-      <c r="S52" s="9">
-        <v>6</v>
-      </c>
-      <c r="T52" s="9">
-        <v>6</v>
-      </c>
-      <c r="U52" s="9">
-        <v>6</v>
-      </c>
-      <c r="V52" s="9">
-        <v>6</v>
-      </c>
-      <c r="W52" s="9">
-        <v>6</v>
-      </c>
-      <c r="X52" s="9">
-        <v>6</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB52" s="9">
-        <v>6</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>6</v>
-      </c>
-      <c r="AD52" s="9">
-        <v>6</v>
-      </c>
-      <c r="AE52" s="9">
-        <v>6</v>
-      </c>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
     </row>
     <row r="53" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="9">
@@ -37194,18 +37098,12 @@
       <c r="S53" s="9">
         <v>20</v>
       </c>
-      <c r="T53" s="9">
-        <v>-4</v>
-      </c>
-      <c r="U53" s="9">
-        <v>-4</v>
-      </c>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
       <c r="V53" s="9">
         <v>28</v>
       </c>
-      <c r="W53" s="9">
-        <v>-4</v>
-      </c>
+      <c r="W53" s="9"/>
       <c r="X53" s="9">
         <v>20</v>
       </c>
@@ -37218,18 +37116,12 @@
       <c r="AA53" s="9">
         <v>20</v>
       </c>
-      <c r="AB53" s="9">
-        <v>-4</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
       <c r="AD53" s="9">
         <v>28</v>
       </c>
-      <c r="AE53" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AE53" s="9"/>
     </row>
     <row r="54" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="9">
@@ -37267,51 +37159,31 @@
       <c r="O54" s="9">
         <v>-16.8</v>
       </c>
-      <c r="P54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
       <c r="T54" s="9">
         <v>9.9</v>
       </c>
       <c r="U54" s="9">
         <v>9.9</v>
       </c>
-      <c r="V54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V54" s="9"/>
       <c r="W54" s="9">
         <v>-7.8</v>
       </c>
-      <c r="X54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
       <c r="AB54" s="9">
         <v>9.9</v>
       </c>
       <c r="AC54" s="9">
         <v>9.9</v>
       </c>
-      <c r="AD54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD54" s="9"/>
       <c r="AE54" s="9">
         <v>-7.8</v>
       </c>
@@ -37689,54 +37561,22 @@
       <c r="O60" s="9">
         <v>112.8</v>
       </c>
-      <c r="P60" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>6</v>
-      </c>
-      <c r="R60" s="9">
-        <v>6</v>
-      </c>
-      <c r="S60" s="9">
-        <v>6</v>
-      </c>
-      <c r="T60" s="9">
-        <v>6</v>
-      </c>
-      <c r="U60" s="9">
-        <v>6</v>
-      </c>
-      <c r="V60" s="9">
-        <v>6</v>
-      </c>
-      <c r="W60" s="9">
-        <v>6</v>
-      </c>
-      <c r="X60" s="9">
-        <v>6</v>
-      </c>
-      <c r="Y60" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z60" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB60" s="9">
-        <v>6</v>
-      </c>
-      <c r="AC60" s="9">
-        <v>6</v>
-      </c>
-      <c r="AD60" s="9">
-        <v>6</v>
-      </c>
-      <c r="AE60" s="9">
-        <v>6</v>
-      </c>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
     </row>
     <row r="61" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
@@ -37786,18 +37626,12 @@
       <c r="S61" s="9">
         <v>20</v>
       </c>
-      <c r="T61" s="9">
-        <v>-4</v>
-      </c>
-      <c r="U61" s="9">
-        <v>-4</v>
-      </c>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
       <c r="V61" s="9">
         <v>28</v>
       </c>
-      <c r="W61" s="9">
-        <v>-4</v>
-      </c>
+      <c r="W61" s="9"/>
       <c r="X61" s="9">
         <v>20</v>
       </c>
@@ -37810,18 +37644,12 @@
       <c r="AA61" s="9">
         <v>20</v>
       </c>
-      <c r="AB61" s="9">
-        <v>-4</v>
-      </c>
-      <c r="AC61" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
       <c r="AD61" s="9">
         <v>28</v>
       </c>
-      <c r="AE61" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AE61" s="9"/>
     </row>
     <row r="62" spans="3:31" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
@@ -37859,51 +37687,31 @@
       <c r="O62" s="9">
         <v>-16.8</v>
       </c>
-      <c r="P62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
       <c r="T62" s="9">
         <v>9.9</v>
       </c>
       <c r="U62" s="9">
         <v>9.9</v>
       </c>
-      <c r="V62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V62" s="9"/>
       <c r="W62" s="9">
         <v>-7.8</v>
       </c>
-      <c r="X62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <v>9.9</v>
       </c>
       <c r="AC62" s="9">
         <v>9.9</v>
       </c>
-      <c r="AD62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD62" s="9"/>
       <c r="AE62" s="9">
         <v>-7.8</v>
       </c>
@@ -38281,54 +38089,22 @@
       <c r="O68" s="9">
         <v>112.8</v>
       </c>
-      <c r="P68" s="9">
-        <v>6</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>6</v>
-      </c>
-      <c r="R68" s="9">
-        <v>6</v>
-      </c>
-      <c r="S68" s="9">
-        <v>6</v>
-      </c>
-      <c r="T68" s="9">
-        <v>6</v>
-      </c>
-      <c r="U68" s="9">
-        <v>6</v>
-      </c>
-      <c r="V68" s="9">
-        <v>6</v>
-      </c>
-      <c r="W68" s="9">
-        <v>6</v>
-      </c>
-      <c r="X68" s="9">
-        <v>6</v>
-      </c>
-      <c r="Y68" s="9">
-        <v>6</v>
-      </c>
-      <c r="Z68" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA68" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>6</v>
-      </c>
-      <c r="AC68" s="9">
-        <v>6</v>
-      </c>
-      <c r="AD68" s="9">
-        <v>6</v>
-      </c>
-      <c r="AE68" s="9">
-        <v>6</v>
-      </c>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
     </row>
     <row r="69" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="9">
@@ -38378,18 +38154,12 @@
       <c r="S69" s="9">
         <v>20</v>
       </c>
-      <c r="T69" s="9">
-        <v>-4</v>
-      </c>
-      <c r="U69" s="9">
-        <v>-4</v>
-      </c>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
       <c r="V69" s="9">
         <v>28</v>
       </c>
-      <c r="W69" s="9">
-        <v>-4</v>
-      </c>
+      <c r="W69" s="9"/>
       <c r="X69" s="9">
         <v>20</v>
       </c>
@@ -38402,18 +38172,12 @@
       <c r="AA69" s="9">
         <v>20</v>
       </c>
-      <c r="AB69" s="9">
-        <v>-4</v>
-      </c>
-      <c r="AC69" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
       <c r="AD69" s="9">
         <v>28</v>
       </c>
-      <c r="AE69" s="9">
-        <v>-4</v>
-      </c>
+      <c r="AE69" s="9"/>
     </row>
     <row r="70" spans="3:31" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70" s="9">
@@ -38451,51 +38215,31 @@
       <c r="O70" s="9">
         <v>-16.8</v>
       </c>
-      <c r="P70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
       <c r="T70" s="9">
         <v>9.9</v>
       </c>
       <c r="U70" s="9">
         <v>9.9</v>
       </c>
-      <c r="V70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V70" s="9"/>
       <c r="W70" s="9">
         <v>-7.8</v>
       </c>
-      <c r="X70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <v>9.9</v>
       </c>
       <c r="AC70" s="9">
         <v>9.9</v>
       </c>
-      <c r="AD70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD70" s="9"/>
       <c r="AE70" s="9">
         <v>-7.8</v>
       </c>
@@ -38833,54 +38577,22 @@
       <c r="O76" s="9">
         <v>353.44</v>
       </c>
-      <c r="P76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="Q76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="R76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="S76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="T76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="U76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="V76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="W76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="X76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="Y76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="Z76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AA76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AB76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AC76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AD76" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AE76" s="9">
-        <v>18.8</v>
-      </c>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
     </row>
     <row r="77" spans="3:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C77" s="9">
@@ -38930,18 +38642,12 @@
       <c r="S77" s="9">
         <v>55</v>
       </c>
-      <c r="T77" s="9">
-        <v>-11</v>
-      </c>
-      <c r="U77" s="9">
-        <v>-11</v>
-      </c>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
       <c r="V77" s="9">
         <v>77</v>
       </c>
-      <c r="W77" s="9">
-        <v>-11</v>
-      </c>
+      <c r="W77" s="9"/>
       <c r="X77" s="9">
         <v>55</v>
       </c>
@@ -38954,18 +38660,12 @@
       <c r="AA77" s="9">
         <v>55</v>
       </c>
-      <c r="AB77" s="9">
-        <v>-11</v>
-      </c>
-      <c r="AC77" s="9">
-        <v>-11</v>
-      </c>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
       <c r="AD77" s="9">
         <v>77</v>
       </c>
-      <c r="AE77" s="9">
-        <v>-11</v>
-      </c>
+      <c r="AE77" s="9"/>
     </row>
     <row r="78" spans="3:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="9">
@@ -39003,51 +38703,31 @@
       <c r="O78" s="9">
         <v>31.36</v>
       </c>
-      <c r="P78" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Q78" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="R78" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="S78" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
       <c r="T78" s="9">
         <v>-18.48</v>
       </c>
       <c r="U78" s="9">
         <v>-18.48</v>
       </c>
-      <c r="V78" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="V78" s="9"/>
       <c r="W78" s="9">
         <v>14.56</v>
       </c>
-      <c r="X78" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Y78" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Z78" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="AA78" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
       <c r="AB78" s="9">
         <v>-18.48</v>
       </c>
       <c r="AC78" s="9">
         <v>-18.48</v>
       </c>
-      <c r="AD78" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="AD78" s="9"/>
       <c r="AE78" s="9">
         <v>14.56</v>
       </c>
@@ -39385,54 +39065,22 @@
       <c r="O84" s="9">
         <v>353.44</v>
       </c>
-      <c r="P84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="Q84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="R84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="S84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="T84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="U84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="V84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="W84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="X84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="Y84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="Z84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AA84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AB84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AC84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AD84" s="9">
-        <v>18.8</v>
-      </c>
-      <c r="AE84" s="9">
-        <v>18.8</v>
-      </c>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
     </row>
     <row r="85" spans="3:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C85" s="9">
@@ -39482,18 +39130,12 @@
       <c r="S85" s="9">
         <v>55</v>
       </c>
-      <c r="T85" s="9">
-        <v>-11</v>
-      </c>
-      <c r="U85" s="9">
-        <v>-11</v>
-      </c>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
       <c r="V85" s="9">
         <v>77</v>
       </c>
-      <c r="W85" s="9">
-        <v>-11</v>
-      </c>
+      <c r="W85" s="9"/>
       <c r="X85" s="9">
         <v>55</v>
       </c>
@@ -39506,18 +39148,12 @@
       <c r="AA85" s="9">
         <v>55</v>
       </c>
-      <c r="AB85" s="9">
-        <v>-11</v>
-      </c>
-      <c r="AC85" s="9">
-        <v>-11</v>
-      </c>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
       <c r="AD85" s="9">
         <v>77</v>
       </c>
-      <c r="AE85" s="9">
-        <v>-11</v>
-      </c>
+      <c r="AE85" s="9"/>
     </row>
     <row r="86" spans="3:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C86" s="9">
@@ -39555,51 +39191,31 @@
       <c r="O86" s="9">
         <v>31.36</v>
       </c>
-      <c r="P86" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Q86" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="R86" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="S86" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
       <c r="T86" s="9">
         <v>-18.48</v>
       </c>
       <c r="U86" s="9">
         <v>-18.48</v>
       </c>
-      <c r="V86" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="V86" s="9"/>
       <c r="W86" s="9">
         <v>14.56</v>
       </c>
-      <c r="X86" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Y86" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="Z86" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="AA86" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
       <c r="AB86" s="9">
         <v>-18.48</v>
       </c>
       <c r="AC86" s="9">
         <v>-18.48</v>
       </c>
-      <c r="AD86" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="AD86" s="9"/>
       <c r="AE86" s="9">
         <v>14.56</v>
       </c>
@@ -39963,24 +39579,12 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="9">
-        <v>12</v>
-      </c>
-      <c r="K92" s="9">
-        <v>12</v>
-      </c>
-      <c r="L92" s="9">
-        <v>12</v>
-      </c>
-      <c r="M92" s="9">
-        <v>12</v>
-      </c>
-      <c r="N92" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O92" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
@@ -40046,18 +39650,12 @@
       <c r="S93" s="9">
         <v>25</v>
       </c>
-      <c r="T93" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U93" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
       <c r="V93" s="9">
         <v>35</v>
       </c>
-      <c r="W93" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W93" s="9"/>
       <c r="X93" s="9">
         <v>25</v>
       </c>
@@ -40070,18 +39668,12 @@
       <c r="AA93" s="9">
         <v>25</v>
       </c>
-      <c r="AB93" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC93" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="9"/>
       <c r="AD93" s="9">
         <v>35</v>
       </c>
-      <c r="AE93" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE93" s="9"/>
     </row>
     <row r="94" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C94" s="9">
@@ -40099,52 +39691,28 @@
         <v>2.6</v>
       </c>
       <c r="I94" s="9"/>
-      <c r="J94" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K94" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L94" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M94" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N94" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O94" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
       <c r="S94" s="9"/>
-      <c r="T94" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U94" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
       <c r="V94" s="9"/>
-      <c r="W94" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W94" s="9"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
-      <c r="AB94" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC94" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB94" s="9"/>
+      <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
-      <c r="AE94" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE94" s="9"/>
     </row>
     <row r="96" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C96" s="89" t="s">
@@ -40504,24 +40072,12 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="9">
-        <v>12</v>
-      </c>
-      <c r="K100" s="9">
-        <v>12</v>
-      </c>
-      <c r="L100" s="9">
-        <v>12</v>
-      </c>
-      <c r="M100" s="9">
-        <v>12</v>
-      </c>
-      <c r="N100" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O100" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
@@ -40587,18 +40143,12 @@
       <c r="S101" s="9">
         <v>25</v>
       </c>
-      <c r="T101" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U101" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
       <c r="V101" s="9">
         <v>35</v>
       </c>
-      <c r="W101" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W101" s="9"/>
       <c r="X101" s="9">
         <v>25</v>
       </c>
@@ -40611,18 +40161,12 @@
       <c r="AA101" s="9">
         <v>25</v>
       </c>
-      <c r="AB101" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC101" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
       <c r="AD101" s="9">
         <v>35</v>
       </c>
-      <c r="AE101" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE101" s="9"/>
     </row>
     <row r="102" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C102" s="9">
@@ -40640,52 +40184,28 @@
         <v>2.6</v>
       </c>
       <c r="I102" s="9"/>
-      <c r="J102" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K102" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L102" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M102" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N102" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O102" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
-      <c r="T102" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U102" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
       <c r="V102" s="9"/>
-      <c r="W102" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W102" s="9"/>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
-      <c r="AB102" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC102" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
       <c r="AD102" s="9"/>
-      <c r="AE102" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE102" s="9"/>
     </row>
     <row r="104" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C104" s="89" t="s">
@@ -41045,24 +40565,12 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9">
-        <v>12</v>
-      </c>
-      <c r="K108" s="9">
-        <v>12</v>
-      </c>
-      <c r="L108" s="9">
-        <v>12</v>
-      </c>
-      <c r="M108" s="9">
-        <v>12</v>
-      </c>
-      <c r="N108" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O108" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
@@ -41128,18 +40636,12 @@
       <c r="S109" s="9">
         <v>25</v>
       </c>
-      <c r="T109" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U109" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
       <c r="V109" s="9">
         <v>35</v>
       </c>
-      <c r="W109" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W109" s="9"/>
       <c r="X109" s="9">
         <v>25</v>
       </c>
@@ -41152,18 +40654,12 @@
       <c r="AA109" s="9">
         <v>25</v>
       </c>
-      <c r="AB109" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC109" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="9"/>
       <c r="AD109" s="9">
         <v>35</v>
       </c>
-      <c r="AE109" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE109" s="9"/>
     </row>
     <row r="110" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C110" s="9">
@@ -41181,52 +40677,28 @@
         <v>2.6</v>
       </c>
       <c r="I110" s="9"/>
-      <c r="J110" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K110" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L110" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M110" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N110" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O110" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
-      <c r="T110" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U110" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
       <c r="V110" s="9"/>
-      <c r="W110" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W110" s="9"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
-      <c r="AB110" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC110" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB110" s="9"/>
+      <c r="AC110" s="9"/>
       <c r="AD110" s="9"/>
-      <c r="AE110" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE110" s="9"/>
     </row>
     <row r="112" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C112" s="89" t="s">
@@ -41586,24 +41058,12 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="9">
-        <v>12</v>
-      </c>
-      <c r="K116" s="9">
-        <v>12</v>
-      </c>
-      <c r="L116" s="9">
-        <v>12</v>
-      </c>
-      <c r="M116" s="9">
-        <v>12</v>
-      </c>
-      <c r="N116" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O116" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
@@ -41669,18 +41129,12 @@
       <c r="S117" s="9">
         <v>25</v>
       </c>
-      <c r="T117" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U117" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
       <c r="V117" s="9">
         <v>35</v>
       </c>
-      <c r="W117" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W117" s="9"/>
       <c r="X117" s="9">
         <v>25</v>
       </c>
@@ -41693,18 +41147,12 @@
       <c r="AA117" s="9">
         <v>25</v>
       </c>
-      <c r="AB117" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC117" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB117" s="9"/>
+      <c r="AC117" s="9"/>
       <c r="AD117" s="9">
         <v>35</v>
       </c>
-      <c r="AE117" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE117" s="9"/>
     </row>
     <row r="118" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C118" s="9">
@@ -41722,52 +41170,28 @@
         <v>2.6</v>
       </c>
       <c r="I118" s="9"/>
-      <c r="J118" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K118" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L118" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M118" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N118" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O118" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
-      <c r="T118" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U118" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
       <c r="V118" s="9"/>
-      <c r="W118" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
-      <c r="AB118" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC118" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB118" s="9"/>
+      <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
-      <c r="AE118" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE118" s="9"/>
     </row>
     <row r="120" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C120" s="89" t="s">
@@ -42091,24 +41515,12 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9">
-        <v>12</v>
-      </c>
-      <c r="K124" s="9">
-        <v>12</v>
-      </c>
-      <c r="L124" s="9">
-        <v>12</v>
-      </c>
-      <c r="M124" s="9">
-        <v>12</v>
-      </c>
-      <c r="N124" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O124" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
@@ -42142,59 +41554,27 @@
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K125" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L125" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M125" s="9">
-        <v>-15</v>
-      </c>
-      <c r="N125" s="9">
-        <v>-17</v>
-      </c>
-      <c r="O125" s="9">
-        <v>-17</v>
-      </c>
-      <c r="P125" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Q125" s="9">
-        <v>-5</v>
-      </c>
-      <c r="R125" s="9">
-        <v>-5</v>
-      </c>
-      <c r="S125" s="9">
-        <v>-5</v>
-      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
-      <c r="V125" s="9">
-        <v>-7</v>
-      </c>
+      <c r="V125" s="9"/>
       <c r="W125" s="9"/>
-      <c r="X125" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Y125" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Z125" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AA125" s="9">
-        <v>-5</v>
-      </c>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
-      <c r="AD125" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AD125" s="9"/>
       <c r="AE125" s="9"/>
     </row>
     <row r="126" spans="3:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -42233,51 +41613,31 @@
       <c r="O126" s="9">
         <v>-18.48</v>
       </c>
-      <c r="P126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
       <c r="T126" s="9">
         <v>10.89</v>
       </c>
       <c r="U126" s="9">
         <v>10.89</v>
       </c>
-      <c r="V126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V126" s="9"/>
       <c r="W126" s="9">
         <v>-8.58</v>
       </c>
-      <c r="X126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+      <c r="AA126" s="9"/>
       <c r="AB126" s="9">
         <v>10.89</v>
       </c>
       <c r="AC126" s="9">
         <v>10.89</v>
       </c>
-      <c r="AD126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD126" s="9"/>
       <c r="AE126" s="9">
         <v>-8.58</v>
       </c>
@@ -42594,24 +41954,12 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9">
-        <v>12</v>
-      </c>
-      <c r="K132" s="9">
-        <v>12</v>
-      </c>
-      <c r="L132" s="9">
-        <v>12</v>
-      </c>
-      <c r="M132" s="9">
-        <v>12</v>
-      </c>
-      <c r="N132" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O132" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
       <c r="R132" s="9"/>
@@ -42645,59 +41993,27 @@
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K133" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L133" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M133" s="9">
-        <v>-15</v>
-      </c>
-      <c r="N133" s="9">
-        <v>-17</v>
-      </c>
-      <c r="O133" s="9">
-        <v>-17</v>
-      </c>
-      <c r="P133" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Q133" s="9">
-        <v>-5</v>
-      </c>
-      <c r="R133" s="9">
-        <v>-5</v>
-      </c>
-      <c r="S133" s="9">
-        <v>-5</v>
-      </c>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
-      <c r="V133" s="9">
-        <v>-7</v>
-      </c>
+      <c r="V133" s="9"/>
       <c r="W133" s="9"/>
-      <c r="X133" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Y133" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Z133" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AA133" s="9">
-        <v>-5</v>
-      </c>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
-      <c r="AD133" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AD133" s="9"/>
       <c r="AE133" s="9"/>
     </row>
     <row r="134" spans="2:31" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -42736,51 +42052,31 @@
       <c r="O134" s="9">
         <v>-18.48</v>
       </c>
-      <c r="P134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
       <c r="T134" s="9">
         <v>10.89</v>
       </c>
       <c r="U134" s="9">
         <v>10.89</v>
       </c>
-      <c r="V134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V134" s="9"/>
       <c r="W134" s="9">
         <v>-8.58</v>
       </c>
-      <c r="X134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="9"/>
       <c r="AB134" s="9">
         <v>10.89</v>
       </c>
       <c r="AC134" s="9">
         <v>10.89</v>
       </c>
-      <c r="AD134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD134" s="9"/>
       <c r="AE134" s="9">
         <v>-8.58</v>
       </c>
@@ -43108,24 +42404,12 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="9">
-        <v>12</v>
-      </c>
-      <c r="K140" s="9">
-        <v>12</v>
-      </c>
-      <c r="L140" s="9">
-        <v>12</v>
-      </c>
-      <c r="M140" s="9">
-        <v>12</v>
-      </c>
-      <c r="N140" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O140" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
@@ -43191,18 +42475,12 @@
       <c r="S141" s="9">
         <v>35</v>
       </c>
-      <c r="T141" s="9">
-        <v>-7</v>
-      </c>
-      <c r="U141" s="9">
-        <v>-7</v>
-      </c>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
       <c r="V141" s="9">
         <v>49</v>
       </c>
-      <c r="W141" s="9">
-        <v>-7</v>
-      </c>
+      <c r="W141" s="9"/>
       <c r="X141" s="9">
         <v>35</v>
       </c>
@@ -43215,18 +42493,12 @@
       <c r="AA141" s="9">
         <v>35</v>
       </c>
-      <c r="AB141" s="9">
-        <v>-7</v>
-      </c>
-      <c r="AC141" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AB141" s="9"/>
+      <c r="AC141" s="9"/>
       <c r="AD141" s="9">
         <v>49</v>
       </c>
-      <c r="AE141" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AE141" s="9"/>
     </row>
     <row r="142" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C142" s="9">
@@ -43244,52 +42516,28 @@
         <v>2.6</v>
       </c>
       <c r="I142" s="9"/>
-      <c r="J142" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K142" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L142" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M142" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N142" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O142" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
-      <c r="T142" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U142" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
       <c r="V142" s="9"/>
-      <c r="W142" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W142" s="9"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
-      <c r="AB142" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC142" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB142" s="9"/>
+      <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
-      <c r="AE142" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE142" s="9"/>
     </row>
     <row r="143" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -43614,24 +42862,12 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="9">
-        <v>12</v>
-      </c>
-      <c r="K148" s="9">
-        <v>12</v>
-      </c>
-      <c r="L148" s="9">
-        <v>12</v>
-      </c>
-      <c r="M148" s="9">
-        <v>12</v>
-      </c>
-      <c r="N148" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O148" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
@@ -43665,59 +42901,27 @@
       </c>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K149" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L149" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M149" s="9">
-        <v>-15</v>
-      </c>
-      <c r="N149" s="9">
-        <v>-17</v>
-      </c>
-      <c r="O149" s="9">
-        <v>-17</v>
-      </c>
-      <c r="P149" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Q149" s="9">
-        <v>-5</v>
-      </c>
-      <c r="R149" s="9">
-        <v>-5</v>
-      </c>
-      <c r="S149" s="9">
-        <v>-5</v>
-      </c>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
-      <c r="V149" s="9">
-        <v>-7</v>
-      </c>
+      <c r="V149" s="9"/>
       <c r="W149" s="9"/>
-      <c r="X149" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Y149" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Z149" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AA149" s="9">
-        <v>-5</v>
-      </c>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+      <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
-      <c r="AD149" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AD149" s="9"/>
       <c r="AE149" s="9"/>
     </row>
     <row r="150" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -43756,51 +42960,31 @@
       <c r="O150" s="9">
         <v>14.56</v>
       </c>
-      <c r="P150" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="Q150" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="R150" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="S150" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="9"/>
       <c r="T150" s="9">
         <v>-8.58</v>
       </c>
       <c r="U150" s="9">
         <v>-8.58</v>
       </c>
-      <c r="V150" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="V150" s="9"/>
       <c r="W150" s="9">
         <v>6.76</v>
       </c>
-      <c r="X150" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="Y150" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="Z150" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="AA150" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="X150" s="9"/>
+      <c r="Y150" s="9"/>
+      <c r="Z150" s="9"/>
+      <c r="AA150" s="9"/>
       <c r="AB150" s="9">
         <v>-8.58</v>
       </c>
       <c r="AC150" s="9">
         <v>-8.58</v>
       </c>
-      <c r="AD150" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AD150" s="9"/>
       <c r="AE150" s="9">
         <v>6.76</v>
       </c>
@@ -44163,24 +43347,12 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
-      <c r="J156" s="9">
-        <v>12</v>
-      </c>
-      <c r="K156" s="9">
-        <v>12</v>
-      </c>
-      <c r="L156" s="9">
-        <v>12</v>
-      </c>
-      <c r="M156" s="9">
-        <v>12</v>
-      </c>
-      <c r="N156" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O156" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
       <c r="P156" s="9"/>
       <c r="Q156" s="9"/>
       <c r="R156" s="9"/>
@@ -44246,18 +43418,12 @@
       <c r="S157" s="9">
         <v>25</v>
       </c>
-      <c r="T157" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U157" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T157" s="9"/>
+      <c r="U157" s="9"/>
       <c r="V157" s="9">
         <v>35</v>
       </c>
-      <c r="W157" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W157" s="9"/>
       <c r="X157" s="9">
         <v>25</v>
       </c>
@@ -44270,18 +43436,12 @@
       <c r="AA157" s="9">
         <v>25</v>
       </c>
-      <c r="AB157" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC157" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB157" s="9"/>
+      <c r="AC157" s="9"/>
       <c r="AD157" s="9">
         <v>35</v>
       </c>
-      <c r="AE157" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE157" s="9"/>
     </row>
     <row r="158" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C158" s="9">
@@ -44299,52 +43459,28 @@
         <v>2.6</v>
       </c>
       <c r="I158" s="9"/>
-      <c r="J158" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K158" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L158" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M158" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N158" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O158" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
       <c r="S158" s="9"/>
-      <c r="T158" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U158" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T158" s="9"/>
+      <c r="U158" s="9"/>
       <c r="V158" s="9"/>
-      <c r="W158" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W158" s="9"/>
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
-      <c r="AB158" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC158" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB158" s="9"/>
+      <c r="AC158" s="9"/>
       <c r="AD158" s="9"/>
-      <c r="AE158" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE158" s="9"/>
     </row>
     <row r="159" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="160" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -44705,24 +43841,12 @@
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="9">
-        <v>12</v>
-      </c>
-      <c r="K164" s="9">
-        <v>12</v>
-      </c>
-      <c r="L164" s="9">
-        <v>12</v>
-      </c>
-      <c r="M164" s="9">
-        <v>12</v>
-      </c>
-      <c r="N164" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O164" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
@@ -44788,18 +43912,12 @@
       <c r="S165" s="9">
         <v>25</v>
       </c>
-      <c r="T165" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U165" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T165" s="9"/>
+      <c r="U165" s="9"/>
       <c r="V165" s="9">
         <v>35</v>
       </c>
-      <c r="W165" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W165" s="9"/>
       <c r="X165" s="9">
         <v>25</v>
       </c>
@@ -44812,18 +43930,12 @@
       <c r="AA165" s="9">
         <v>25</v>
       </c>
-      <c r="AB165" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC165" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
       <c r="AD165" s="9">
         <v>35</v>
       </c>
-      <c r="AE165" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE165" s="9"/>
     </row>
     <row r="166" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C166" s="9">
@@ -44841,52 +43953,28 @@
         <v>2.6</v>
       </c>
       <c r="I166" s="9"/>
-      <c r="J166" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K166" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L166" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M166" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N166" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O166" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
-      <c r="T166" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U166" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T166" s="9"/>
+      <c r="U166" s="9"/>
       <c r="V166" s="9"/>
-      <c r="W166" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W166" s="9"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
-      <c r="AB166" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC166" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB166" s="9"/>
+      <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
-      <c r="AE166" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE166" s="9"/>
     </row>
     <row r="167" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -45247,24 +44335,12 @@
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
-      <c r="J172" s="9">
-        <v>12</v>
-      </c>
-      <c r="K172" s="9">
-        <v>12</v>
-      </c>
-      <c r="L172" s="9">
-        <v>12</v>
-      </c>
-      <c r="M172" s="9">
-        <v>12</v>
-      </c>
-      <c r="N172" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O172" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
       <c r="P172" s="9"/>
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
@@ -45330,18 +44406,12 @@
       <c r="S173" s="9">
         <v>25</v>
       </c>
-      <c r="T173" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U173" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T173" s="9"/>
+      <c r="U173" s="9"/>
       <c r="V173" s="9">
         <v>35</v>
       </c>
-      <c r="W173" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W173" s="9"/>
       <c r="X173" s="9">
         <v>25</v>
       </c>
@@ -45354,18 +44424,12 @@
       <c r="AA173" s="9">
         <v>25</v>
       </c>
-      <c r="AB173" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC173" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB173" s="9"/>
+      <c r="AC173" s="9"/>
       <c r="AD173" s="9">
         <v>35</v>
       </c>
-      <c r="AE173" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE173" s="9"/>
     </row>
     <row r="174" spans="3:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C174" s="9">
@@ -45383,52 +44447,28 @@
         <v>2.6</v>
       </c>
       <c r="I174" s="9"/>
-      <c r="J174" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K174" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L174" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M174" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N174" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O174" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
       <c r="S174" s="9"/>
-      <c r="T174" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U174" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T174" s="9"/>
+      <c r="U174" s="9"/>
       <c r="V174" s="9"/>
-      <c r="W174" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W174" s="9"/>
       <c r="X174" s="9"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
-      <c r="AB174" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC174" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB174" s="9"/>
+      <c r="AC174" s="9"/>
       <c r="AD174" s="9"/>
-      <c r="AE174" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE174" s="9"/>
     </row>
     <row r="176" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C176" s="89" t="s">
@@ -45788,24 +44828,12 @@
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
-      <c r="J180" s="9">
-        <v>12</v>
-      </c>
-      <c r="K180" s="9">
-        <v>12</v>
-      </c>
-      <c r="L180" s="9">
-        <v>12</v>
-      </c>
-      <c r="M180" s="9">
-        <v>12</v>
-      </c>
-      <c r="N180" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O180" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9"/>
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
       <c r="R180" s="9"/>
@@ -45871,18 +44899,12 @@
       <c r="S181" s="9">
         <v>25</v>
       </c>
-      <c r="T181" s="9">
-        <v>-5</v>
-      </c>
-      <c r="U181" s="9">
-        <v>-5</v>
-      </c>
+      <c r="T181" s="9"/>
+      <c r="U181" s="9"/>
       <c r="V181" s="9">
         <v>35</v>
       </c>
-      <c r="W181" s="9">
-        <v>-5</v>
-      </c>
+      <c r="W181" s="9"/>
       <c r="X181" s="9">
         <v>25</v>
       </c>
@@ -45895,18 +44917,12 @@
       <c r="AA181" s="9">
         <v>25</v>
       </c>
-      <c r="AB181" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AC181" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AB181" s="9"/>
+      <c r="AC181" s="9"/>
       <c r="AD181" s="9">
         <v>35</v>
       </c>
-      <c r="AE181" s="9">
-        <v>-5</v>
-      </c>
+      <c r="AE181" s="9"/>
     </row>
     <row r="182" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C182" s="9">
@@ -45924,52 +44940,28 @@
         <v>2.6</v>
       </c>
       <c r="I182" s="9"/>
-      <c r="J182" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K182" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L182" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M182" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N182" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O182" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
       <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
       <c r="R182" s="9"/>
       <c r="S182" s="9"/>
-      <c r="T182" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U182" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T182" s="9"/>
+      <c r="U182" s="9"/>
       <c r="V182" s="9"/>
-      <c r="W182" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W182" s="9"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
-      <c r="AB182" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC182" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB182" s="9"/>
+      <c r="AC182" s="9"/>
       <c r="AD182" s="9"/>
-      <c r="AE182" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE182" s="9"/>
     </row>
     <row r="184" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C184" s="89" t="s">
@@ -46293,24 +45285,12 @@
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
-      <c r="J188" s="9">
-        <v>12</v>
-      </c>
-      <c r="K188" s="9">
-        <v>12</v>
-      </c>
-      <c r="L188" s="9">
-        <v>12</v>
-      </c>
-      <c r="M188" s="9">
-        <v>12</v>
-      </c>
-      <c r="N188" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O188" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
+      <c r="O188" s="9"/>
       <c r="P188" s="9"/>
       <c r="Q188" s="9"/>
       <c r="R188" s="9"/>
@@ -46344,59 +45324,27 @@
       </c>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
-      <c r="J189" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K189" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L189" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M189" s="9">
-        <v>-15</v>
-      </c>
-      <c r="N189" s="9">
-        <v>-17</v>
-      </c>
-      <c r="O189" s="9">
-        <v>-17</v>
-      </c>
-      <c r="P189" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Q189" s="9">
-        <v>-5</v>
-      </c>
-      <c r="R189" s="9">
-        <v>-5</v>
-      </c>
-      <c r="S189" s="9">
-        <v>-5</v>
-      </c>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="9"/>
+      <c r="Q189" s="9"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="9"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9"/>
-      <c r="V189" s="9">
-        <v>-7</v>
-      </c>
+      <c r="V189" s="9"/>
       <c r="W189" s="9"/>
-      <c r="X189" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Y189" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Z189" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AA189" s="9">
-        <v>-5</v>
-      </c>
+      <c r="X189" s="9"/>
+      <c r="Y189" s="9"/>
+      <c r="Z189" s="9"/>
+      <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
-      <c r="AD189" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AD189" s="9"/>
       <c r="AE189" s="9"/>
     </row>
     <row r="190" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -46435,51 +45383,31 @@
       <c r="O190" s="9">
         <v>-18.48</v>
       </c>
-      <c r="P190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P190" s="9"/>
+      <c r="Q190" s="9"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="9"/>
       <c r="T190" s="9">
         <v>10.89</v>
       </c>
       <c r="U190" s="9">
         <v>10.89</v>
       </c>
-      <c r="V190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V190" s="9"/>
       <c r="W190" s="9">
         <v>-8.58</v>
       </c>
-      <c r="X190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X190" s="9"/>
+      <c r="Y190" s="9"/>
+      <c r="Z190" s="9"/>
+      <c r="AA190" s="9"/>
       <c r="AB190" s="9">
         <v>10.89</v>
       </c>
       <c r="AC190" s="9">
         <v>10.89</v>
       </c>
-      <c r="AD190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD190" s="9"/>
       <c r="AE190" s="9">
         <v>-8.58</v>
       </c>
@@ -46837,24 +45765,12 @@
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
-      <c r="J196" s="9">
-        <v>12</v>
-      </c>
-      <c r="K196" s="9">
-        <v>12</v>
-      </c>
-      <c r="L196" s="9">
-        <v>12</v>
-      </c>
-      <c r="M196" s="9">
-        <v>12</v>
-      </c>
-      <c r="N196" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O196" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
       <c r="P196" s="9"/>
       <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
@@ -46888,59 +45804,27 @@
       </c>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
-      <c r="J197" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K197" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L197" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M197" s="9">
-        <v>-15</v>
-      </c>
-      <c r="N197" s="9">
-        <v>-17</v>
-      </c>
-      <c r="O197" s="9">
-        <v>-17</v>
-      </c>
-      <c r="P197" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Q197" s="9">
-        <v>-5</v>
-      </c>
-      <c r="R197" s="9">
-        <v>-5</v>
-      </c>
-      <c r="S197" s="9">
-        <v>-5</v>
-      </c>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="9"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="9"/>
+      <c r="Q197" s="9"/>
+      <c r="R197" s="9"/>
+      <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9"/>
-      <c r="V197" s="9">
-        <v>-7</v>
-      </c>
+      <c r="V197" s="9"/>
       <c r="W197" s="9"/>
-      <c r="X197" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Y197" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Z197" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AA197" s="9">
-        <v>-5</v>
-      </c>
+      <c r="X197" s="9"/>
+      <c r="Y197" s="9"/>
+      <c r="Z197" s="9"/>
+      <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
-      <c r="AD197" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AD197" s="9"/>
       <c r="AE197" s="9"/>
     </row>
     <row r="198" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -46979,51 +45863,31 @@
       <c r="O198" s="9">
         <v>-18.48</v>
       </c>
-      <c r="P198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P198" s="9"/>
+      <c r="Q198" s="9"/>
+      <c r="R198" s="9"/>
+      <c r="S198" s="9"/>
       <c r="T198" s="9">
         <v>10.89</v>
       </c>
       <c r="U198" s="9">
         <v>10.89</v>
       </c>
-      <c r="V198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V198" s="9"/>
       <c r="W198" s="9">
         <v>-8.58</v>
       </c>
-      <c r="X198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X198" s="9"/>
+      <c r="Y198" s="9"/>
+      <c r="Z198" s="9"/>
+      <c r="AA198" s="9"/>
       <c r="AB198" s="9">
         <v>10.89</v>
       </c>
       <c r="AC198" s="9">
         <v>10.89</v>
       </c>
-      <c r="AD198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD198" s="9"/>
       <c r="AE198" s="9">
         <v>-8.58</v>
       </c>
@@ -47387,24 +46251,12 @@
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
-      <c r="J204" s="9">
-        <v>12</v>
-      </c>
-      <c r="K204" s="9">
-        <v>12</v>
-      </c>
-      <c r="L204" s="9">
-        <v>12</v>
-      </c>
-      <c r="M204" s="9">
-        <v>12</v>
-      </c>
-      <c r="N204" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O204" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="9"/>
+      <c r="M204" s="9"/>
+      <c r="N204" s="9"/>
+      <c r="O204" s="9"/>
       <c r="P204" s="9"/>
       <c r="Q204" s="9"/>
       <c r="R204" s="9"/>
@@ -47470,18 +46322,12 @@
       <c r="S205" s="9">
         <v>35</v>
       </c>
-      <c r="T205" s="9">
-        <v>-7</v>
-      </c>
-      <c r="U205" s="9">
-        <v>-7</v>
-      </c>
+      <c r="T205" s="9"/>
+      <c r="U205" s="9"/>
       <c r="V205" s="9">
         <v>49</v>
       </c>
-      <c r="W205" s="9">
-        <v>-7</v>
-      </c>
+      <c r="W205" s="9"/>
       <c r="X205" s="9">
         <v>35</v>
       </c>
@@ -47494,18 +46340,12 @@
       <c r="AA205" s="9">
         <v>35</v>
       </c>
-      <c r="AB205" s="9">
-        <v>-7</v>
-      </c>
-      <c r="AC205" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AB205" s="9"/>
+      <c r="AC205" s="9"/>
       <c r="AD205" s="9">
         <v>49</v>
       </c>
-      <c r="AE205" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AE205" s="9"/>
     </row>
     <row r="206" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C206" s="9">
@@ -47523,52 +46363,28 @@
         <v>2.6</v>
       </c>
       <c r="I206" s="9"/>
-      <c r="J206" s="9">
-        <v>-3</v>
-      </c>
-      <c r="K206" s="9">
-        <v>-3</v>
-      </c>
-      <c r="L206" s="9">
-        <v>-3</v>
-      </c>
-      <c r="M206" s="9">
-        <v>-3</v>
-      </c>
-      <c r="N206" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="O206" s="9">
-        <v>5.6</v>
-      </c>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
+      <c r="L206" s="9"/>
+      <c r="M206" s="9"/>
+      <c r="N206" s="9"/>
+      <c r="O206" s="9"/>
       <c r="P206" s="9"/>
       <c r="Q206" s="9"/>
       <c r="R206" s="9"/>
       <c r="S206" s="9"/>
-      <c r="T206" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="U206" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="T206" s="9"/>
+      <c r="U206" s="9"/>
       <c r="V206" s="9"/>
-      <c r="W206" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="W206" s="9"/>
       <c r="X206" s="9"/>
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
-      <c r="AB206" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AC206" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AB206" s="9"/>
+      <c r="AC206" s="9"/>
       <c r="AD206" s="9"/>
-      <c r="AE206" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AE206" s="9"/>
     </row>
     <row r="208" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C208" s="89" t="s">
@@ -47928,24 +46744,12 @@
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
-      <c r="J212" s="9">
-        <v>12</v>
-      </c>
-      <c r="K212" s="9">
-        <v>12</v>
-      </c>
-      <c r="L212" s="9">
-        <v>12</v>
-      </c>
-      <c r="M212" s="9">
-        <v>12</v>
-      </c>
-      <c r="N212" s="9">
-        <v>68.8</v>
-      </c>
-      <c r="O212" s="9">
-        <v>68.8</v>
-      </c>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="9"/>
+      <c r="M212" s="9"/>
+      <c r="N212" s="9"/>
+      <c r="O212" s="9"/>
       <c r="P212" s="9"/>
       <c r="Q212" s="9"/>
       <c r="R212" s="9"/>
@@ -47979,59 +46783,27 @@
       </c>
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
-      <c r="J213" s="9">
-        <v>-15</v>
-      </c>
-      <c r="K213" s="9">
-        <v>-15</v>
-      </c>
-      <c r="L213" s="9">
-        <v>-15</v>
-      </c>
-      <c r="M213" s="9">
-        <v>-15</v>
-      </c>
-      <c r="N213" s="9">
-        <v>-17</v>
-      </c>
-      <c r="O213" s="9">
-        <v>-17</v>
-      </c>
-      <c r="P213" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Q213" s="9">
-        <v>-5</v>
-      </c>
-      <c r="R213" s="9">
-        <v>-5</v>
-      </c>
-      <c r="S213" s="9">
-        <v>-5</v>
-      </c>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="9"/>
+      <c r="N213" s="9"/>
+      <c r="O213" s="9"/>
+      <c r="P213" s="9"/>
+      <c r="Q213" s="9"/>
+      <c r="R213" s="9"/>
+      <c r="S213" s="9"/>
       <c r="T213" s="9"/>
       <c r="U213" s="9"/>
-      <c r="V213" s="9">
-        <v>-7</v>
-      </c>
+      <c r="V213" s="9"/>
       <c r="W213" s="9"/>
-      <c r="X213" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Y213" s="9">
-        <v>-5</v>
-      </c>
-      <c r="Z213" s="9">
-        <v>-5</v>
-      </c>
-      <c r="AA213" s="9">
-        <v>-5</v>
-      </c>
+      <c r="X213" s="9"/>
+      <c r="Y213" s="9"/>
+      <c r="Z213" s="9"/>
+      <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
-      <c r="AD213" s="9">
-        <v>-7</v>
-      </c>
+      <c r="AD213" s="9"/>
       <c r="AE213" s="9"/>
     </row>
     <row r="214" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -48070,51 +46842,31 @@
       <c r="O214" s="9">
         <v>14.56</v>
       </c>
-      <c r="P214" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="Q214" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="R214" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="S214" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="9"/>
       <c r="T214" s="9">
         <v>-8.58</v>
       </c>
       <c r="U214" s="9">
         <v>-8.58</v>
       </c>
-      <c r="V214" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="V214" s="9"/>
       <c r="W214" s="9">
         <v>6.76</v>
       </c>
-      <c r="X214" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="Y214" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="Z214" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="AA214" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="X214" s="9"/>
+      <c r="Y214" s="9"/>
+      <c r="Z214" s="9"/>
+      <c r="AA214" s="9"/>
       <c r="AB214" s="9">
         <v>-8.58</v>
       </c>
       <c r="AC214" s="9">
         <v>-8.58</v>
       </c>
-      <c r="AD214" s="9">
-        <v>2.6</v>
-      </c>
+      <c r="AD214" s="9"/>
       <c r="AE214" s="9">
         <v>6.76</v>
       </c>
@@ -48155,8 +46907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AE227"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168:H168"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51409,54 +50161,22 @@
       <c r="O44" s="9">
         <v>2.5</v>
       </c>
-      <c r="P44" s="9">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>12</v>
-      </c>
-      <c r="R44" s="9">
-        <v>12</v>
-      </c>
-      <c r="S44" s="9">
-        <v>12</v>
-      </c>
-      <c r="T44" s="9">
-        <v>12</v>
-      </c>
-      <c r="U44" s="9">
-        <v>12</v>
-      </c>
-      <c r="V44" s="9">
-        <v>12</v>
-      </c>
-      <c r="W44" s="9">
-        <v>12</v>
-      </c>
-      <c r="X44" s="9">
-        <v>12</v>
-      </c>
-      <c r="Y44" s="9">
-        <v>12</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>12</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>12</v>
-      </c>
-      <c r="AB44" s="9">
-        <v>12</v>
-      </c>
-      <c r="AC44" s="9">
-        <v>12</v>
-      </c>
-      <c r="AD44" s="9">
-        <v>12</v>
-      </c>
-      <c r="AE44" s="9">
-        <v>12</v>
-      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
     </row>
     <row r="45" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="9">
@@ -51506,18 +50226,12 @@
       <c r="S45" s="9">
         <v>3</v>
       </c>
-      <c r="T45" s="9">
-        <v>-15</v>
-      </c>
-      <c r="U45" s="9">
-        <v>-15</v>
-      </c>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
       <c r="V45" s="9">
         <v>5</v>
       </c>
-      <c r="W45" s="9">
-        <v>-15</v>
-      </c>
+      <c r="W45" s="9"/>
       <c r="X45" s="9">
         <v>3</v>
       </c>
@@ -51530,18 +50244,12 @@
       <c r="AA45" s="9">
         <v>3</v>
       </c>
-      <c r="AB45" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
       <c r="AD45" s="9">
         <v>5</v>
       </c>
-      <c r="AE45" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AE45" s="9"/>
     </row>
     <row r="46" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
@@ -51579,51 +50287,31 @@
       <c r="O46" s="9">
         <v>-10</v>
       </c>
-      <c r="P46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
       <c r="T46" s="9">
         <v>1.2</v>
       </c>
       <c r="U46" s="9">
         <v>1.2</v>
       </c>
-      <c r="V46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V46" s="9"/>
       <c r="W46" s="9">
         <v>-1.25</v>
       </c>
-      <c r="X46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z46" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
       <c r="AB46" s="9">
         <v>1.2</v>
       </c>
       <c r="AC46" s="9">
         <v>1.2</v>
       </c>
-      <c r="AD46" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD46" s="9"/>
       <c r="AE46" s="9">
         <v>-1.25</v>
       </c>
@@ -52012,54 +50700,22 @@
       <c r="O52" s="9">
         <v>2.5</v>
       </c>
-      <c r="P52" s="9">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>12</v>
-      </c>
-      <c r="R52" s="9">
-        <v>12</v>
-      </c>
-      <c r="S52" s="9">
-        <v>12</v>
-      </c>
-      <c r="T52" s="9">
-        <v>12</v>
-      </c>
-      <c r="U52" s="9">
-        <v>12</v>
-      </c>
-      <c r="V52" s="9">
-        <v>12</v>
-      </c>
-      <c r="W52" s="9">
-        <v>12</v>
-      </c>
-      <c r="X52" s="9">
-        <v>12</v>
-      </c>
-      <c r="Y52" s="9">
-        <v>12</v>
-      </c>
-      <c r="Z52" s="9">
-        <v>12</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>12</v>
-      </c>
-      <c r="AB52" s="9">
-        <v>12</v>
-      </c>
-      <c r="AC52" s="9">
-        <v>12</v>
-      </c>
-      <c r="AD52" s="9">
-        <v>12</v>
-      </c>
-      <c r="AE52" s="9">
-        <v>12</v>
-      </c>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
     </row>
     <row r="53" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="9">
@@ -52109,18 +50765,12 @@
       <c r="S53" s="9">
         <v>3</v>
       </c>
-      <c r="T53" s="9">
-        <v>-15</v>
-      </c>
-      <c r="U53" s="9">
-        <v>-15</v>
-      </c>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
       <c r="V53" s="9">
         <v>5</v>
       </c>
-      <c r="W53" s="9">
-        <v>-15</v>
-      </c>
+      <c r="W53" s="9"/>
       <c r="X53" s="9">
         <v>3</v>
       </c>
@@ -52133,18 +50783,12 @@
       <c r="AA53" s="9">
         <v>3</v>
       </c>
-      <c r="AB53" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AC53" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
       <c r="AD53" s="9">
         <v>5</v>
       </c>
-      <c r="AE53" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AE53" s="9"/>
     </row>
     <row r="54" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="9">
@@ -52182,51 +50826,31 @@
       <c r="O54" s="9">
         <v>-10</v>
       </c>
-      <c r="P54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
       <c r="T54" s="9">
         <v>1.2</v>
       </c>
       <c r="U54" s="9">
         <v>1.2</v>
       </c>
-      <c r="V54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V54" s="9"/>
       <c r="W54" s="9">
         <v>-1.25</v>
       </c>
-      <c r="X54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z54" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
       <c r="AB54" s="9">
         <v>1.2</v>
       </c>
       <c r="AC54" s="9">
         <v>1.2</v>
       </c>
-      <c r="AD54" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD54" s="9"/>
       <c r="AE54" s="9">
         <v>-1.25</v>
       </c>
@@ -52609,54 +51233,22 @@
       <c r="O60" s="9">
         <v>2.5</v>
       </c>
-      <c r="P60" s="9">
-        <v>12</v>
-      </c>
-      <c r="Q60" s="9">
-        <v>12</v>
-      </c>
-      <c r="R60" s="9">
-        <v>12</v>
-      </c>
-      <c r="S60" s="9">
-        <v>12</v>
-      </c>
-      <c r="T60" s="9">
-        <v>12</v>
-      </c>
-      <c r="U60" s="9">
-        <v>12</v>
-      </c>
-      <c r="V60" s="9">
-        <v>12</v>
-      </c>
-      <c r="W60" s="9">
-        <v>12</v>
-      </c>
-      <c r="X60" s="9">
-        <v>12</v>
-      </c>
-      <c r="Y60" s="9">
-        <v>12</v>
-      </c>
-      <c r="Z60" s="9">
-        <v>12</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>12</v>
-      </c>
-      <c r="AB60" s="9">
-        <v>12</v>
-      </c>
-      <c r="AC60" s="9">
-        <v>12</v>
-      </c>
-      <c r="AD60" s="9">
-        <v>12</v>
-      </c>
-      <c r="AE60" s="9">
-        <v>12</v>
-      </c>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
     </row>
     <row r="61" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
@@ -52706,18 +51298,12 @@
       <c r="S61" s="9">
         <v>3</v>
       </c>
-      <c r="T61" s="9">
-        <v>-15</v>
-      </c>
-      <c r="U61" s="9">
-        <v>-15</v>
-      </c>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
       <c r="V61" s="9">
         <v>5</v>
       </c>
-      <c r="W61" s="9">
-        <v>-15</v>
-      </c>
+      <c r="W61" s="9"/>
       <c r="X61" s="9">
         <v>3</v>
       </c>
@@ -52730,18 +51316,12 @@
       <c r="AA61" s="9">
         <v>3</v>
       </c>
-      <c r="AB61" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AC61" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
       <c r="AD61" s="9">
         <v>5</v>
       </c>
-      <c r="AE61" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AE61" s="9"/>
     </row>
     <row r="62" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
@@ -52779,51 +51359,31 @@
       <c r="O62" s="9">
         <v>-10</v>
       </c>
-      <c r="P62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
       <c r="T62" s="9">
         <v>1.2</v>
       </c>
       <c r="U62" s="9">
         <v>1.2</v>
       </c>
-      <c r="V62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V62" s="9"/>
       <c r="W62" s="9">
         <v>-1.25</v>
       </c>
-      <c r="X62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z62" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
       <c r="AB62" s="9">
         <v>1.2</v>
       </c>
       <c r="AC62" s="9">
         <v>1.2</v>
       </c>
-      <c r="AD62" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD62" s="9"/>
       <c r="AE62" s="9">
         <v>-1.25</v>
       </c>
@@ -53206,54 +51766,22 @@
       <c r="O68" s="9">
         <v>2.5</v>
       </c>
-      <c r="P68" s="9">
-        <v>12</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>12</v>
-      </c>
-      <c r="R68" s="9">
-        <v>12</v>
-      </c>
-      <c r="S68" s="9">
-        <v>12</v>
-      </c>
-      <c r="T68" s="9">
-        <v>12</v>
-      </c>
-      <c r="U68" s="9">
-        <v>12</v>
-      </c>
-      <c r="V68" s="9">
-        <v>12</v>
-      </c>
-      <c r="W68" s="9">
-        <v>12</v>
-      </c>
-      <c r="X68" s="9">
-        <v>12</v>
-      </c>
-      <c r="Y68" s="9">
-        <v>12</v>
-      </c>
-      <c r="Z68" s="9">
-        <v>12</v>
-      </c>
-      <c r="AA68" s="9">
-        <v>12</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>12</v>
-      </c>
-      <c r="AC68" s="9">
-        <v>12</v>
-      </c>
-      <c r="AD68" s="9">
-        <v>12</v>
-      </c>
-      <c r="AE68" s="9">
-        <v>12</v>
-      </c>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
     </row>
     <row r="69" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="9">
@@ -53303,18 +51831,12 @@
       <c r="S69" s="9">
         <v>3</v>
       </c>
-      <c r="T69" s="9">
-        <v>-15</v>
-      </c>
-      <c r="U69" s="9">
-        <v>-15</v>
-      </c>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
       <c r="V69" s="9">
         <v>5</v>
       </c>
-      <c r="W69" s="9">
-        <v>-15</v>
-      </c>
+      <c r="W69" s="9"/>
       <c r="X69" s="9">
         <v>3</v>
       </c>
@@ -53327,18 +51849,12 @@
       <c r="AA69" s="9">
         <v>3</v>
       </c>
-      <c r="AB69" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AC69" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
       <c r="AD69" s="9">
         <v>5</v>
       </c>
-      <c r="AE69" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AE69" s="9"/>
     </row>
     <row r="70" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C70" s="9">
@@ -53376,51 +51892,31 @@
       <c r="O70" s="9">
         <v>-10</v>
       </c>
-      <c r="P70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Q70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="R70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="S70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
       <c r="T70" s="9">
         <v>1.2</v>
       </c>
       <c r="U70" s="9">
         <v>1.2</v>
       </c>
-      <c r="V70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="V70" s="9"/>
       <c r="W70" s="9">
         <v>-1.25</v>
       </c>
-      <c r="X70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Y70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="Z70" s="9">
-        <v>-3</v>
-      </c>
-      <c r="AA70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
       <c r="AB70" s="9">
         <v>1.2</v>
       </c>
       <c r="AC70" s="9">
         <v>1.2</v>
       </c>
-      <c r="AD70" s="9">
-        <v>-3</v>
-      </c>
+      <c r="AD70" s="9"/>
       <c r="AE70" s="9">
         <v>-1.25</v>
       </c>
@@ -53757,54 +52253,22 @@
       <c r="O76" s="9">
         <v>1</v>
       </c>
-      <c r="P76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="Q76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="R76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="S76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="T76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="U76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="V76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="W76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="X76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="Y76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="Z76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AA76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AB76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AC76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AD76" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AE76" s="9">
-        <v>4.8</v>
-      </c>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
     </row>
     <row r="77" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C77" s="9">
@@ -53854,18 +52318,12 @@
       <c r="S77" s="9">
         <v>5</v>
       </c>
-      <c r="T77" s="9">
-        <v>-15</v>
-      </c>
-      <c r="U77" s="9">
-        <v>-15</v>
-      </c>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
       <c r="V77" s="9">
         <v>5</v>
       </c>
-      <c r="W77" s="9">
-        <v>-15</v>
-      </c>
+      <c r="W77" s="9"/>
       <c r="X77" s="9">
         <v>5</v>
       </c>
@@ -53878,18 +52336,12 @@
       <c r="AA77" s="9">
         <v>5</v>
       </c>
-      <c r="AB77" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AC77" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
       <c r="AD77" s="9">
         <v>5</v>
       </c>
-      <c r="AE77" s="9">
-        <v>-15</v>
-      </c>
+      <c r="AE77" s="9"/>
     </row>
     <row r="78" spans="3:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="9">
@@ -53927,62 +52379,532 @@
       <c r="O78" s="9">
         <v>1</v>
       </c>
-      <c r="P78" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q78" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="R78" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="S78" s="9">
-        <v>0.3</v>
-      </c>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
       <c r="T78" s="9">
         <v>-0.12</v>
       </c>
       <c r="U78" s="9">
         <v>-0.12</v>
       </c>
-      <c r="V78" s="9">
-        <v>0.3</v>
-      </c>
+      <c r="V78" s="9"/>
       <c r="W78" s="9">
         <v>0.125</v>
       </c>
-      <c r="X78" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Y78" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Z78" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AA78" s="9">
-        <v>0.3</v>
-      </c>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
       <c r="AB78" s="9">
         <v>-0.12</v>
       </c>
       <c r="AC78" s="9">
         <v>-0.12</v>
       </c>
-      <c r="AD78" s="9">
-        <v>0.3</v>
-      </c>
+      <c r="AD78" s="9"/>
       <c r="AE78" s="9">
         <v>0.125</v>
       </c>
     </row>
-    <row r="80" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="D80" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="E80" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="F80" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="G80" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="H80" s="89" t="s">
+        <v>568</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+    </row>
+    <row r="81" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="V81" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="W81" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y81" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z81" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA81" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB81" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC81" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE81" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="V82" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="W82" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="X82" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y82" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z82" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA82" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB82" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC82" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD82" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE82" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="9">
+        <v>16</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E83" s="9">
+        <v>5</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G83" s="9">
+        <v>16</v>
+      </c>
+      <c r="H83" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="J83" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K83" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L83" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M83" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N83" s="9">
+        <v>1</v>
+      </c>
+      <c r="O83" s="9">
+        <v>1</v>
+      </c>
+      <c r="P83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="R83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="S83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="T83" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="U83" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="V83" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W83" s="9">
+        <v>2</v>
+      </c>
+      <c r="X83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="Y83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="Z83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="AA83" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="AB83" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AC83" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AD83" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE83" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="9">
+        <v>12</v>
+      </c>
+      <c r="D84" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="J84" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="M84" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N84" s="9">
+        <v>1</v>
+      </c>
+      <c r="O84" s="9">
+        <v>1</v>
+      </c>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+    </row>
+    <row r="85" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="9">
+        <v>-4</v>
+      </c>
+      <c r="D85" s="9">
+        <v>-15</v>
+      </c>
+      <c r="E85" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9">
+        <v>-3</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9">
+        <v>-15</v>
+      </c>
+      <c r="J85" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="K85" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="L85" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="M85" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="N85" s="9">
+        <v>1</v>
+      </c>
+      <c r="O85" s="9">
+        <v>1</v>
+      </c>
+      <c r="P85" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>5</v>
+      </c>
+      <c r="R85" s="9">
+        <v>5</v>
+      </c>
+      <c r="S85" s="9">
+        <v>5</v>
+      </c>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9">
+        <v>5</v>
+      </c>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y85" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z85" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA85" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE85" s="9"/>
+    </row>
+    <row r="86" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J86" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="K86" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="L86" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="M86" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="N86" s="9">
+        <v>1</v>
+      </c>
+      <c r="O86" s="9">
+        <v>1</v>
+      </c>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="U86" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="AC86" s="9">
+        <v>-0.12</v>
+      </c>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
     <row r="87" spans="3:31" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C88" s="89" t="s">
@@ -54342,24 +53264,12 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="9">
-        <v>1</v>
-      </c>
-      <c r="K92" s="9">
-        <v>1</v>
-      </c>
-      <c r="L92" s="9">
-        <v>1</v>
-      </c>
-      <c r="M92" s="9">
-        <v>1</v>
-      </c>
-      <c r="N92" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O92" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
@@ -54425,18 +53335,12 @@
       <c r="S93" s="9">
         <v>1</v>
       </c>
-      <c r="T93" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U93" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
       <c r="V93" s="9">
         <v>8</v>
       </c>
-      <c r="W93" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W93" s="9"/>
       <c r="X93" s="9">
         <v>1</v>
       </c>
@@ -54449,18 +53353,12 @@
       <c r="AA93" s="9">
         <v>1</v>
       </c>
-      <c r="AB93" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC93" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB93" s="9"/>
+      <c r="AC93" s="9"/>
       <c r="AD93" s="9">
         <v>8</v>
       </c>
-      <c r="AE93" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE93" s="9"/>
     </row>
     <row r="94" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C94" s="9">
@@ -54478,52 +53376,28 @@
         <v>1.6</v>
       </c>
       <c r="I94" s="9"/>
-      <c r="J94" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K94" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L94" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M94" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N94" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O94" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
       <c r="S94" s="9"/>
-      <c r="T94" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U94" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
       <c r="V94" s="9"/>
-      <c r="W94" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W94" s="9"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
-      <c r="AB94" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC94" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB94" s="9"/>
+      <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
-      <c r="AE94" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE94" s="9"/>
     </row>
     <row r="96" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C96" s="89" t="s">
@@ -54883,24 +53757,12 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="9">
-        <v>1</v>
-      </c>
-      <c r="K100" s="9">
-        <v>1</v>
-      </c>
-      <c r="L100" s="9">
-        <v>1</v>
-      </c>
-      <c r="M100" s="9">
-        <v>1</v>
-      </c>
-      <c r="N100" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O100" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
@@ -54966,18 +53828,12 @@
       <c r="S101" s="9">
         <v>1</v>
       </c>
-      <c r="T101" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U101" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
       <c r="V101" s="9">
         <v>8</v>
       </c>
-      <c r="W101" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W101" s="9"/>
       <c r="X101" s="9">
         <v>1</v>
       </c>
@@ -54990,18 +53846,12 @@
       <c r="AA101" s="9">
         <v>1</v>
       </c>
-      <c r="AB101" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC101" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
       <c r="AD101" s="9">
         <v>8</v>
       </c>
-      <c r="AE101" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE101" s="9"/>
     </row>
     <row r="102" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C102" s="9">
@@ -55019,52 +53869,28 @@
         <v>1.6</v>
       </c>
       <c r="I102" s="9"/>
-      <c r="J102" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K102" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L102" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M102" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N102" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O102" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
       <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
-      <c r="T102" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U102" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
       <c r="V102" s="9"/>
-      <c r="W102" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W102" s="9"/>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
-      <c r="AB102" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC102" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
       <c r="AD102" s="9"/>
-      <c r="AE102" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE102" s="9"/>
     </row>
     <row r="104" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C104" s="89" t="s">
@@ -55424,24 +54250,12 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9">
-        <v>1</v>
-      </c>
-      <c r="K108" s="9">
-        <v>1</v>
-      </c>
-      <c r="L108" s="9">
-        <v>1</v>
-      </c>
-      <c r="M108" s="9">
-        <v>1</v>
-      </c>
-      <c r="N108" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O108" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
@@ -55507,18 +54321,12 @@
       <c r="S109" s="9">
         <v>1</v>
       </c>
-      <c r="T109" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U109" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
       <c r="V109" s="9">
         <v>8</v>
       </c>
-      <c r="W109" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W109" s="9"/>
       <c r="X109" s="9">
         <v>1</v>
       </c>
@@ -55531,18 +54339,12 @@
       <c r="AA109" s="9">
         <v>1</v>
       </c>
-      <c r="AB109" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC109" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB109" s="9"/>
+      <c r="AC109" s="9"/>
       <c r="AD109" s="9">
         <v>8</v>
       </c>
-      <c r="AE109" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE109" s="9"/>
     </row>
     <row r="110" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C110" s="9">
@@ -55560,52 +54362,28 @@
         <v>1.6</v>
       </c>
       <c r="I110" s="9"/>
-      <c r="J110" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K110" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L110" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M110" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N110" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O110" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
-      <c r="T110" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U110" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
       <c r="V110" s="9"/>
-      <c r="W110" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W110" s="9"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
-      <c r="AB110" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC110" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB110" s="9"/>
+      <c r="AC110" s="9"/>
       <c r="AD110" s="9"/>
-      <c r="AE110" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE110" s="9"/>
     </row>
     <row r="111" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -55966,24 +54744,12 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="9">
-        <v>1</v>
-      </c>
-      <c r="K116" s="9">
-        <v>1</v>
-      </c>
-      <c r="L116" s="9">
-        <v>1</v>
-      </c>
-      <c r="M116" s="9">
-        <v>1</v>
-      </c>
-      <c r="N116" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O116" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
@@ -56049,18 +54815,12 @@
       <c r="S117" s="9">
         <v>1</v>
       </c>
-      <c r="T117" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U117" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
       <c r="V117" s="9">
         <v>8</v>
       </c>
-      <c r="W117" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W117" s="9"/>
       <c r="X117" s="9">
         <v>1</v>
       </c>
@@ -56073,18 +54833,12 @@
       <c r="AA117" s="9">
         <v>1</v>
       </c>
-      <c r="AB117" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC117" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB117" s="9"/>
+      <c r="AC117" s="9"/>
       <c r="AD117" s="9">
         <v>8</v>
       </c>
-      <c r="AE117" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE117" s="9"/>
     </row>
     <row r="118" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C118" s="9">
@@ -56102,52 +54856,28 @@
         <v>1.6</v>
       </c>
       <c r="I118" s="9"/>
-      <c r="J118" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K118" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L118" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M118" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N118" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O118" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
       <c r="P118" s="9"/>
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
-      <c r="T118" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U118" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
       <c r="V118" s="9"/>
-      <c r="W118" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W118" s="9"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
-      <c r="AB118" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC118" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB118" s="9"/>
+      <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
-      <c r="AE118" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE118" s="9"/>
     </row>
     <row r="120" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C120" s="89" t="s">
@@ -56461,24 +55191,12 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K124" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="L124" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M124" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="N124" s="9">
-        <v>2</v>
-      </c>
-      <c r="O124" s="9">
-        <v>2</v>
-      </c>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
@@ -56512,59 +55230,27 @@
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
-      <c r="J125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="K125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="L125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="M125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="N125" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="O125" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="P125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Q125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="R125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="S125" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
-      <c r="V125" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="V125" s="9"/>
       <c r="W125" s="9"/>
-      <c r="X125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Y125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Z125" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="AA125" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
-      <c r="AD125" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="AD125" s="9"/>
       <c r="AE125" s="9"/>
     </row>
     <row r="126" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -56603,51 +55289,31 @@
       <c r="O126" s="9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="P126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
       <c r="T126" s="9">
         <v>1</v>
       </c>
       <c r="U126" s="9">
         <v>1</v>
       </c>
-      <c r="V126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V126" s="9"/>
       <c r="W126" s="9">
         <v>-1.5</v>
       </c>
-      <c r="X126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z126" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+      <c r="AA126" s="9"/>
       <c r="AB126" s="9">
         <v>1</v>
       </c>
       <c r="AC126" s="9">
         <v>1</v>
       </c>
-      <c r="AD126" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD126" s="9"/>
       <c r="AE126" s="9">
         <v>-1.5</v>
       </c>
@@ -56964,24 +55630,12 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K132" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="L132" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M132" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="N132" s="9">
-        <v>2</v>
-      </c>
-      <c r="O132" s="9">
-        <v>2</v>
-      </c>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
       <c r="P132" s="9"/>
       <c r="Q132" s="9"/>
       <c r="R132" s="9"/>
@@ -57015,59 +55669,27 @@
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="K133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="L133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="M133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="N133" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="O133" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="P133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Q133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="R133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="S133" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
       <c r="T133" s="9"/>
       <c r="U133" s="9"/>
-      <c r="V133" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="V133" s="9"/>
       <c r="W133" s="9"/>
-      <c r="X133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Y133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Z133" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="AA133" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
-      <c r="AD133" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="AD133" s="9"/>
       <c r="AE133" s="9"/>
     </row>
     <row r="134" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -57106,51 +55728,31 @@
       <c r="O134" s="9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="P134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
       <c r="T134" s="9">
         <v>1</v>
       </c>
       <c r="U134" s="9">
         <v>1</v>
       </c>
-      <c r="V134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V134" s="9"/>
       <c r="W134" s="9">
         <v>-1.5</v>
       </c>
-      <c r="X134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z134" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="9"/>
       <c r="AB134" s="9">
         <v>1</v>
       </c>
       <c r="AC134" s="9">
         <v>1</v>
       </c>
-      <c r="AD134" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD134" s="9"/>
       <c r="AE134" s="9">
         <v>-1.5</v>
       </c>
@@ -57467,24 +56069,12 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="9">
-        <v>1</v>
-      </c>
-      <c r="K140" s="9">
-        <v>1</v>
-      </c>
-      <c r="L140" s="9">
-        <v>1</v>
-      </c>
-      <c r="M140" s="9">
-        <v>1</v>
-      </c>
-      <c r="N140" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O140" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
       <c r="P140" s="9"/>
       <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
@@ -57550,18 +56140,12 @@
       <c r="S141" s="9">
         <v>12</v>
       </c>
-      <c r="T141" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U141" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
       <c r="V141" s="9">
         <v>1</v>
       </c>
-      <c r="W141" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W141" s="9"/>
       <c r="X141" s="9">
         <v>12</v>
       </c>
@@ -57574,18 +56158,12 @@
       <c r="AA141" s="9">
         <v>12</v>
       </c>
-      <c r="AB141" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC141" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB141" s="9"/>
+      <c r="AC141" s="9"/>
       <c r="AD141" s="9">
         <v>1</v>
       </c>
-      <c r="AE141" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE141" s="9"/>
     </row>
     <row r="142" spans="3:31" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C142" s="9">
@@ -57603,52 +56181,28 @@
         <v>2.5</v>
       </c>
       <c r="I142" s="9"/>
-      <c r="J142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N142" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O142" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
       <c r="P142" s="9"/>
       <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
-      <c r="T142" s="9">
-        <v>-2</v>
-      </c>
-      <c r="U142" s="9">
-        <v>-2</v>
-      </c>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
       <c r="V142" s="9"/>
-      <c r="W142" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="W142" s="9"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
-      <c r="AB142" s="9">
-        <v>-2</v>
-      </c>
-      <c r="AC142" s="9">
-        <v>-2</v>
-      </c>
+      <c r="AB142" s="9"/>
+      <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
-      <c r="AE142" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="AE142" s="9"/>
     </row>
     <row r="144" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C144" s="89" t="s">
@@ -57962,24 +56516,12 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
-      <c r="J148" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="K148" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="L148" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="M148" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="N148" s="9">
-        <v>5</v>
-      </c>
-      <c r="O148" s="9">
-        <v>5</v>
-      </c>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
       <c r="P148" s="9"/>
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
@@ -58013,59 +56555,27 @@
       </c>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="K149" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="L149" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="M149" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="N149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="O149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="P149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Q149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="R149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="S149" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
-      <c r="V149" s="9">
-        <v>-0.125</v>
-      </c>
+      <c r="V149" s="9"/>
       <c r="W149" s="9"/>
-      <c r="X149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Y149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Z149" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="AA149" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+      <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
-      <c r="AD149" s="9">
-        <v>-0.125</v>
-      </c>
+      <c r="AD149" s="9"/>
       <c r="AE149" s="9"/>
     </row>
     <row r="150" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -58104,51 +56614,31 @@
       <c r="O150" s="9">
         <v>2</v>
       </c>
-      <c r="P150" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="Q150" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="R150" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="S150" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="9"/>
       <c r="T150" s="9">
         <v>-4</v>
       </c>
       <c r="U150" s="9">
         <v>-4</v>
       </c>
-      <c r="V150" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="V150" s="9"/>
       <c r="W150" s="9">
         <v>1</v>
       </c>
-      <c r="X150" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="Y150" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="Z150" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="AA150" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="X150" s="9"/>
+      <c r="Y150" s="9"/>
+      <c r="Z150" s="9"/>
+      <c r="AA150" s="9"/>
       <c r="AB150" s="9">
         <v>-4</v>
       </c>
       <c r="AC150" s="9">
         <v>-4</v>
       </c>
-      <c r="AD150" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="AD150" s="9"/>
       <c r="AE150" s="9">
         <v>1</v>
       </c>
@@ -58511,24 +57001,12 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
-      <c r="J156" s="9">
-        <v>1</v>
-      </c>
-      <c r="K156" s="9">
-        <v>1</v>
-      </c>
-      <c r="L156" s="9">
-        <v>1</v>
-      </c>
-      <c r="M156" s="9">
-        <v>1</v>
-      </c>
-      <c r="N156" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O156" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
       <c r="P156" s="9"/>
       <c r="Q156" s="9"/>
       <c r="R156" s="9"/>
@@ -58594,18 +57072,12 @@
       <c r="S157" s="9">
         <v>1</v>
       </c>
-      <c r="T157" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U157" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T157" s="9"/>
+      <c r="U157" s="9"/>
       <c r="V157" s="9">
         <v>8</v>
       </c>
-      <c r="W157" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W157" s="9"/>
       <c r="X157" s="9">
         <v>1</v>
       </c>
@@ -58618,18 +57090,12 @@
       <c r="AA157" s="9">
         <v>1</v>
       </c>
-      <c r="AB157" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC157" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB157" s="9"/>
+      <c r="AC157" s="9"/>
       <c r="AD157" s="9">
         <v>8</v>
       </c>
-      <c r="AE157" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE157" s="9"/>
     </row>
     <row r="158" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C158" s="9">
@@ -58647,52 +57113,28 @@
         <v>1.6</v>
       </c>
       <c r="I158" s="9"/>
-      <c r="J158" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K158" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L158" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M158" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N158" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O158" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9"/>
+      <c r="M158" s="9"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
       <c r="P158" s="9"/>
       <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
       <c r="S158" s="9"/>
-      <c r="T158" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U158" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T158" s="9"/>
+      <c r="U158" s="9"/>
       <c r="V158" s="9"/>
-      <c r="W158" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W158" s="9"/>
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
-      <c r="AB158" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC158" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB158" s="9"/>
+      <c r="AC158" s="9"/>
       <c r="AD158" s="9"/>
-      <c r="AE158" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE158" s="9"/>
     </row>
     <row r="160" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C160" s="89" t="s">
@@ -59052,24 +57494,12 @@
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
-      <c r="J164" s="9">
-        <v>1</v>
-      </c>
-      <c r="K164" s="9">
-        <v>1</v>
-      </c>
-      <c r="L164" s="9">
-        <v>1</v>
-      </c>
-      <c r="M164" s="9">
-        <v>1</v>
-      </c>
-      <c r="N164" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O164" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
       <c r="P164" s="9"/>
       <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
@@ -59135,18 +57565,12 @@
       <c r="S165" s="9">
         <v>1</v>
       </c>
-      <c r="T165" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U165" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T165" s="9"/>
+      <c r="U165" s="9"/>
       <c r="V165" s="9">
         <v>8</v>
       </c>
-      <c r="W165" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W165" s="9"/>
       <c r="X165" s="9">
         <v>1</v>
       </c>
@@ -59159,18 +57583,12 @@
       <c r="AA165" s="9">
         <v>1</v>
       </c>
-      <c r="AB165" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC165" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
       <c r="AD165" s="9">
         <v>8</v>
       </c>
-      <c r="AE165" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE165" s="9"/>
     </row>
     <row r="166" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C166" s="9">
@@ -59188,52 +57606,28 @@
         <v>1.6</v>
       </c>
       <c r="I166" s="9"/>
-      <c r="J166" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K166" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L166" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M166" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N166" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O166" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
       <c r="P166" s="9"/>
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
-      <c r="T166" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U166" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T166" s="9"/>
+      <c r="U166" s="9"/>
       <c r="V166" s="9"/>
-      <c r="W166" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W166" s="9"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
-      <c r="AB166" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC166" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB166" s="9"/>
+      <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
-      <c r="AE166" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE166" s="9"/>
     </row>
     <row r="167" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="168" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -59594,24 +57988,12 @@
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
-      <c r="J172" s="9">
-        <v>1</v>
-      </c>
-      <c r="K172" s="9">
-        <v>1</v>
-      </c>
-      <c r="L172" s="9">
-        <v>1</v>
-      </c>
-      <c r="M172" s="9">
-        <v>1</v>
-      </c>
-      <c r="N172" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O172" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
       <c r="P172" s="9"/>
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
@@ -59677,18 +58059,12 @@
       <c r="S173" s="9">
         <v>1</v>
       </c>
-      <c r="T173" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U173" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T173" s="9"/>
+      <c r="U173" s="9"/>
       <c r="V173" s="9">
         <v>8</v>
       </c>
-      <c r="W173" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W173" s="9"/>
       <c r="X173" s="9">
         <v>1</v>
       </c>
@@ -59701,18 +58077,12 @@
       <c r="AA173" s="9">
         <v>1</v>
       </c>
-      <c r="AB173" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC173" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB173" s="9"/>
+      <c r="AC173" s="9"/>
       <c r="AD173" s="9">
         <v>8</v>
       </c>
-      <c r="AE173" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE173" s="9"/>
     </row>
     <row r="174" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C174" s="9">
@@ -59730,52 +58100,28 @@
         <v>1.6</v>
       </c>
       <c r="I174" s="9"/>
-      <c r="J174" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K174" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L174" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M174" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N174" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O174" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
       <c r="S174" s="9"/>
-      <c r="T174" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U174" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T174" s="9"/>
+      <c r="U174" s="9"/>
       <c r="V174" s="9"/>
-      <c r="W174" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W174" s="9"/>
       <c r="X174" s="9"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
-      <c r="AB174" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC174" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB174" s="9"/>
+      <c r="AC174" s="9"/>
       <c r="AD174" s="9"/>
-      <c r="AE174" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE174" s="9"/>
     </row>
     <row r="176" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C176" s="89" t="s">
@@ -60135,24 +58481,12 @@
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
-      <c r="J180" s="9">
-        <v>1</v>
-      </c>
-      <c r="K180" s="9">
-        <v>1</v>
-      </c>
-      <c r="L180" s="9">
-        <v>1</v>
-      </c>
-      <c r="M180" s="9">
-        <v>1</v>
-      </c>
-      <c r="N180" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O180" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+      <c r="M180" s="9"/>
+      <c r="N180" s="9"/>
+      <c r="O180" s="9"/>
       <c r="P180" s="9"/>
       <c r="Q180" s="9"/>
       <c r="R180" s="9"/>
@@ -60218,18 +58552,12 @@
       <c r="S181" s="9">
         <v>1</v>
       </c>
-      <c r="T181" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U181" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T181" s="9"/>
+      <c r="U181" s="9"/>
       <c r="V181" s="9">
         <v>8</v>
       </c>
-      <c r="W181" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W181" s="9"/>
       <c r="X181" s="9">
         <v>1</v>
       </c>
@@ -60242,18 +58570,12 @@
       <c r="AA181" s="9">
         <v>1</v>
       </c>
-      <c r="AB181" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC181" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB181" s="9"/>
+      <c r="AC181" s="9"/>
       <c r="AD181" s="9">
         <v>8</v>
       </c>
-      <c r="AE181" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE181" s="9"/>
     </row>
     <row r="182" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C182" s="9">
@@ -60271,52 +58593,28 @@
         <v>1.6</v>
       </c>
       <c r="I182" s="9"/>
-      <c r="J182" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K182" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L182" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M182" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N182" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O182" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+      <c r="M182" s="9"/>
+      <c r="N182" s="9"/>
+      <c r="O182" s="9"/>
       <c r="P182" s="9"/>
       <c r="Q182" s="9"/>
       <c r="R182" s="9"/>
       <c r="S182" s="9"/>
-      <c r="T182" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="U182" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="T182" s="9"/>
+      <c r="U182" s="9"/>
       <c r="V182" s="9"/>
-      <c r="W182" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="W182" s="9"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
-      <c r="AB182" s="9">
-        <v>-0.4</v>
-      </c>
-      <c r="AC182" s="9">
-        <v>-0.4</v>
-      </c>
+      <c r="AB182" s="9"/>
+      <c r="AC182" s="9"/>
       <c r="AD182" s="9"/>
-      <c r="AE182" s="9">
-        <v>0.625</v>
-      </c>
+      <c r="AE182" s="9"/>
     </row>
     <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="89" t="s">
@@ -60640,24 +58938,12 @@
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
-      <c r="J188" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K188" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="L188" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M188" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="N188" s="9">
-        <v>2</v>
-      </c>
-      <c r="O188" s="9">
-        <v>2</v>
-      </c>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
+      <c r="O188" s="9"/>
       <c r="P188" s="9"/>
       <c r="Q188" s="9"/>
       <c r="R188" s="9"/>
@@ -60691,59 +58977,27 @@
       </c>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
-      <c r="J189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="K189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="L189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="M189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="N189" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="O189" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="P189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Q189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="R189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="S189" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9"/>
+      <c r="L189" s="9"/>
+      <c r="M189" s="9"/>
+      <c r="N189" s="9"/>
+      <c r="O189" s="9"/>
+      <c r="P189" s="9"/>
+      <c r="Q189" s="9"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="9"/>
       <c r="T189" s="9"/>
       <c r="U189" s="9"/>
-      <c r="V189" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="V189" s="9"/>
       <c r="W189" s="9"/>
-      <c r="X189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Y189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Z189" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="AA189" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="X189" s="9"/>
+      <c r="Y189" s="9"/>
+      <c r="Z189" s="9"/>
+      <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
-      <c r="AD189" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="AD189" s="9"/>
       <c r="AE189" s="9"/>
     </row>
     <row r="190" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -60782,51 +59036,31 @@
       <c r="O190" s="9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="P190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P190" s="9"/>
+      <c r="Q190" s="9"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="9"/>
       <c r="T190" s="9">
         <v>1</v>
       </c>
       <c r="U190" s="9">
         <v>1</v>
       </c>
-      <c r="V190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V190" s="9"/>
       <c r="W190" s="9">
         <v>-1.5</v>
       </c>
-      <c r="X190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z190" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X190" s="9"/>
+      <c r="Y190" s="9"/>
+      <c r="Z190" s="9"/>
+      <c r="AA190" s="9"/>
       <c r="AB190" s="9">
         <v>1</v>
       </c>
       <c r="AC190" s="9">
         <v>1</v>
       </c>
-      <c r="AD190" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD190" s="9"/>
       <c r="AE190" s="9">
         <v>-1.5</v>
       </c>
@@ -61184,24 +59418,12 @@
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
-      <c r="J196" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="K196" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="L196" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="M196" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="N196" s="9">
-        <v>2</v>
-      </c>
-      <c r="O196" s="9">
-        <v>2</v>
-      </c>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
       <c r="P196" s="9"/>
       <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
@@ -61235,59 +59457,27 @@
       </c>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
-      <c r="J197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="K197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="L197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="M197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="N197" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="O197" s="9">
-        <v>-0.25</v>
-      </c>
-      <c r="P197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Q197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="R197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="S197" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="9"/>
+      <c r="O197" s="9"/>
+      <c r="P197" s="9"/>
+      <c r="Q197" s="9"/>
+      <c r="R197" s="9"/>
+      <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="9"/>
-      <c r="V197" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="V197" s="9"/>
       <c r="W197" s="9"/>
-      <c r="X197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Y197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Z197" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="AA197" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="X197" s="9"/>
+      <c r="Y197" s="9"/>
+      <c r="Z197" s="9"/>
+      <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
-      <c r="AD197" s="9">
-        <v>-0.25</v>
-      </c>
+      <c r="AD197" s="9"/>
       <c r="AE197" s="9"/>
     </row>
     <row r="198" spans="3:31" x14ac:dyDescent="0.2">
@@ -61326,51 +59516,31 @@
       <c r="O198" s="9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="P198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Q198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="R198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="S198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="P198" s="9"/>
+      <c r="Q198" s="9"/>
+      <c r="R198" s="9"/>
+      <c r="S198" s="9"/>
       <c r="T198" s="9">
         <v>1</v>
       </c>
       <c r="U198" s="9">
         <v>1</v>
       </c>
-      <c r="V198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="V198" s="9"/>
       <c r="W198" s="9">
         <v>-1.5</v>
       </c>
-      <c r="X198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Y198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="Z198" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="AA198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="X198" s="9"/>
+      <c r="Y198" s="9"/>
+      <c r="Z198" s="9"/>
+      <c r="AA198" s="9"/>
       <c r="AB198" s="9">
         <v>1</v>
       </c>
       <c r="AC198" s="9">
         <v>1</v>
       </c>
-      <c r="AD198" s="9">
-        <v>-3.3</v>
-      </c>
+      <c r="AD198" s="9"/>
       <c r="AE198" s="9">
         <v>-1.5</v>
       </c>
@@ -61711,24 +59881,12 @@
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
-      <c r="J204" s="9">
-        <v>1</v>
-      </c>
-      <c r="K204" s="9">
-        <v>1</v>
-      </c>
-      <c r="L204" s="9">
-        <v>1</v>
-      </c>
-      <c r="M204" s="9">
-        <v>1</v>
-      </c>
-      <c r="N204" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="O204" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="J204" s="9"/>
+      <c r="K204" s="9"/>
+      <c r="L204" s="9"/>
+      <c r="M204" s="9"/>
+      <c r="N204" s="9"/>
+      <c r="O204" s="9"/>
       <c r="P204" s="9"/>
       <c r="Q204" s="9"/>
       <c r="R204" s="9"/>
@@ -61794,18 +59952,12 @@
       <c r="S205" s="9">
         <v>12</v>
       </c>
-      <c r="T205" s="9">
-        <v>-24</v>
-      </c>
-      <c r="U205" s="9">
-        <v>-24</v>
-      </c>
+      <c r="T205" s="9"/>
+      <c r="U205" s="9"/>
       <c r="V205" s="9">
         <v>1</v>
       </c>
-      <c r="W205" s="9">
-        <v>-24</v>
-      </c>
+      <c r="W205" s="9"/>
       <c r="X205" s="9">
         <v>12</v>
       </c>
@@ -61818,18 +59970,12 @@
       <c r="AA205" s="9">
         <v>12</v>
       </c>
-      <c r="AB205" s="9">
-        <v>-24</v>
-      </c>
-      <c r="AC205" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AB205" s="9"/>
+      <c r="AC205" s="9"/>
       <c r="AD205" s="9">
         <v>1</v>
       </c>
-      <c r="AE205" s="9">
-        <v>-24</v>
-      </c>
+      <c r="AE205" s="9"/>
     </row>
     <row r="206" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C206" s="9">
@@ -61847,52 +59993,28 @@
         <v>2.5</v>
       </c>
       <c r="I206" s="9"/>
-      <c r="J206" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K206" s="9">
-        <v>-1</v>
-      </c>
-      <c r="L206" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M206" s="9">
-        <v>-1</v>
-      </c>
-      <c r="N206" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="O206" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="J206" s="9"/>
+      <c r="K206" s="9"/>
+      <c r="L206" s="9"/>
+      <c r="M206" s="9"/>
+      <c r="N206" s="9"/>
+      <c r="O206" s="9"/>
       <c r="P206" s="9"/>
       <c r="Q206" s="9"/>
       <c r="R206" s="9"/>
       <c r="S206" s="9"/>
-      <c r="T206" s="9">
-        <v>-2</v>
-      </c>
-      <c r="U206" s="9">
-        <v>-2</v>
-      </c>
+      <c r="T206" s="9"/>
+      <c r="U206" s="9"/>
       <c r="V206" s="9"/>
-      <c r="W206" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="W206" s="9"/>
       <c r="X206" s="9"/>
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
-      <c r="AB206" s="9">
-        <v>-2</v>
-      </c>
-      <c r="AC206" s="9">
-        <v>-2</v>
-      </c>
+      <c r="AB206" s="9"/>
+      <c r="AC206" s="9"/>
       <c r="AD206" s="9"/>
-      <c r="AE206" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="AE206" s="9"/>
     </row>
     <row r="207" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="208" spans="3:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -61928,7 +60050,7 @@
       <c r="AD208" s="9"/>
       <c r="AE208" s="9"/>
     </row>
-    <row r="209" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C209" s="9" t="s">
         <v>145</v>
       </c>
@@ -62040,7 +60162,7 @@
         <v>_res_.$BDV2$BDV1</v>
       </c>
     </row>
-    <row r="210" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C210" s="9" t="s">
         <v>71</v>
       </c>
@@ -62129,7 +60251,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="211" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C211" s="9">
         <v>3</v>
       </c>
@@ -62218,7 +60340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C212" s="9">
         <v>4</v>
       </c>
@@ -62230,24 +60352,12 @@
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
       <c r="I212" s="9"/>
-      <c r="J212" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="K212" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="L212" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="M212" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="N212" s="9">
-        <v>5</v>
-      </c>
-      <c r="O212" s="9">
-        <v>5</v>
-      </c>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="9"/>
+      <c r="M212" s="9"/>
+      <c r="N212" s="9"/>
+      <c r="O212" s="9"/>
       <c r="P212" s="9"/>
       <c r="Q212" s="9"/>
       <c r="R212" s="9"/>
@@ -62265,7 +60375,7 @@
       <c r="AD212" s="9"/>
       <c r="AE212" s="9"/>
     </row>
-    <row r="213" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C213" s="9">
         <v>-10</v>
       </c>
@@ -62281,62 +60391,30 @@
       </c>
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
-      <c r="J213" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="K213" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="L213" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="M213" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="N213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="O213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="P213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Q213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="R213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="S213" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="9"/>
+      <c r="N213" s="9"/>
+      <c r="O213" s="9"/>
+      <c r="P213" s="9"/>
+      <c r="Q213" s="9"/>
+      <c r="R213" s="9"/>
+      <c r="S213" s="9"/>
       <c r="T213" s="9"/>
       <c r="U213" s="9"/>
-      <c r="V213" s="9">
-        <v>-0.125</v>
-      </c>
+      <c r="V213" s="9"/>
       <c r="W213" s="9"/>
-      <c r="X213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Y213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="Z213" s="9">
-        <v>-0.2</v>
-      </c>
-      <c r="AA213" s="9">
-        <v>-0.2</v>
-      </c>
+      <c r="X213" s="9"/>
+      <c r="Y213" s="9"/>
+      <c r="Z213" s="9"/>
+      <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
-      <c r="AD213" s="9">
-        <v>-0.125</v>
-      </c>
+      <c r="AD213" s="9"/>
       <c r="AE213" s="9"/>
     </row>
-    <row r="214" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C214" s="9">
         <v>-3</v>
       </c>
@@ -62372,56 +60450,36 @@
       <c r="O214" s="9">
         <v>2</v>
       </c>
-      <c r="P214" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="Q214" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="R214" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="S214" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="P214" s="9"/>
+      <c r="Q214" s="9"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="9"/>
       <c r="T214" s="9">
         <v>-4</v>
       </c>
       <c r="U214" s="9">
         <v>-4</v>
       </c>
-      <c r="V214" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="V214" s="9"/>
       <c r="W214" s="9">
         <v>1</v>
       </c>
-      <c r="X214" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="Y214" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="Z214" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="AA214" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="X214" s="9"/>
+      <c r="Y214" s="9"/>
+      <c r="Z214" s="9"/>
+      <c r="AA214" s="9"/>
       <c r="AB214" s="9">
         <v>-4</v>
       </c>
       <c r="AC214" s="9">
         <v>-4</v>
       </c>
-      <c r="AD214" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="AD214" s="9"/>
       <c r="AE214" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B217" s="56"/>
       <c r="C217" s="55"/>
       <c r="D217" s="54"/>
@@ -62452,568 +60510,28 @@
       <c r="AC217" s="29"/>
       <c r="AD217" s="28"/>
     </row>
-    <row r="219" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B219" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="C219" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="D219" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="E219" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="F219" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="G219" s="89" t="s">
-        <v>568</v>
-      </c>
-      <c r="H219" s="9"/>
-      <c r="I219" s="9"/>
-      <c r="J219" s="9"/>
-      <c r="K219" s="9"/>
-      <c r="L219" s="9"/>
-      <c r="M219" s="9"/>
-      <c r="N219" s="9"/>
-      <c r="O219" s="9"/>
-      <c r="P219" s="9"/>
-      <c r="Q219" s="9"/>
-      <c r="R219" s="9"/>
-      <c r="S219" s="9"/>
-      <c r="T219" s="9"/>
-      <c r="U219" s="9"/>
-      <c r="V219" s="9"/>
-      <c r="W219" s="9"/>
-      <c r="X219" s="9"/>
-      <c r="Y219" s="9"/>
-      <c r="Z219" s="9"/>
-      <c r="AA219" s="9"/>
-      <c r="AB219" s="9"/>
-      <c r="AC219" s="9"/>
-      <c r="AD219" s="9"/>
-    </row>
-    <row r="220" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B220" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F220" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G220" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H220" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I220" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J220" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K220" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="L220" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M220" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="N220" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="O220" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="P220" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q220" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="R220" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="S220" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="T220" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="U220" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="V220" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="W220" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="X220" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y220" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z220" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA220" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB220" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC220" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD220" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="221" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B221" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F221" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G221" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H221" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="I221" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J221" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="K221" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="L221" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="M221" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="N221" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="O221" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="P221" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q221" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="R221" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="S221" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="T221" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="U221" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="V221" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="W221" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="X221" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y221" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z221" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA221" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB221" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC221" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD221" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="222" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B222" s="9">
-        <v>16</v>
-      </c>
-      <c r="C222" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="D222" s="9">
-        <v>5</v>
-      </c>
-      <c r="E222" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F222" s="9">
-        <v>16</v>
-      </c>
-      <c r="G222" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H222" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I222" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J222" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K222" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L222" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M222" s="9">
-        <v>1</v>
-      </c>
-      <c r="N222" s="9">
-        <v>1</v>
-      </c>
-      <c r="O222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="P222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="Q222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="R222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="S222" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="T222" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="U222" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="V222" s="9">
-        <v>2</v>
-      </c>
-      <c r="W222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="X222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="Y222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="Z222" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="AA222" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="AB222" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="AC222" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AD222" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B223" s="9">
-        <v>12</v>
-      </c>
-      <c r="C223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="I223" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="J223" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K223" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="L223" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="M223" s="9">
-        <v>1</v>
-      </c>
-      <c r="N223" s="9">
-        <v>1</v>
-      </c>
-      <c r="O223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="P223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="Q223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="R223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="S223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="T223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="U223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="V223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="W223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="X223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="Y223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="Z223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AA223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AB223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AC223" s="9">
-        <v>4.8</v>
-      </c>
-      <c r="AD223" s="9">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="224" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B224" s="9">
-        <v>-4</v>
-      </c>
-      <c r="C224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="D224" s="9">
-        <v>-3</v>
-      </c>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9">
-        <v>-3</v>
-      </c>
-      <c r="G224" s="9"/>
-      <c r="H224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="I224" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="J224" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="K224" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="L224" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="M224" s="9">
-        <v>1</v>
-      </c>
-      <c r="N224" s="9">
-        <v>1</v>
-      </c>
-      <c r="O224" s="9">
-        <v>5</v>
-      </c>
-      <c r="P224" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q224" s="9">
-        <v>5</v>
-      </c>
-      <c r="R224" s="9">
-        <v>5</v>
-      </c>
-      <c r="S224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="T224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="U224" s="9">
-        <v>5</v>
-      </c>
-      <c r="V224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="W224" s="9">
-        <v>5</v>
-      </c>
-      <c r="X224" s="9">
-        <v>5</v>
-      </c>
-      <c r="Y224" s="9">
-        <v>5</v>
-      </c>
-      <c r="Z224" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AB224" s="9">
-        <v>-15</v>
-      </c>
-      <c r="AC224" s="9">
-        <v>5</v>
-      </c>
-      <c r="AD224" s="9">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="225" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B225" s="9">
-        <v>-3</v>
-      </c>
-      <c r="C225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9">
-        <v>-2.5</v>
-      </c>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9">
-        <v>2.4</v>
-      </c>
-      <c r="H225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="I225" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="J225" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="K225" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="L225" s="9">
-        <v>-0.1</v>
-      </c>
-      <c r="M225" s="9">
-        <v>1</v>
-      </c>
-      <c r="N225" s="9">
-        <v>1</v>
-      </c>
-      <c r="O225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="P225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Q225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="R225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="S225" s="9">
-        <v>-0.12</v>
-      </c>
-      <c r="T225" s="9">
-        <v>-0.12</v>
-      </c>
-      <c r="U225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="V225" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="W225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="X225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Y225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="Z225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AA225" s="9">
-        <v>-0.12</v>
-      </c>
-      <c r="AB225" s="9">
-        <v>-0.12</v>
-      </c>
-      <c r="AC225" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="AD225" s="9">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="227" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A219" s="57"/>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A220" s="57"/>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A221" s="57"/>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A222" s="57"/>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A223" s="57"/>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A224" s="57"/>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A225" s="57"/>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B227" s="86"/>
       <c r="C227" s="85"/>
       <c r="D227" s="84"/>
@@ -63061,7 +60579,7 @@
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="C56:H56"/>
-    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="C80:H80"/>
     <mergeCell ref="C200:H200"/>
     <mergeCell ref="C208:H208"/>
     <mergeCell ref="C152:H152"/>
@@ -63080,7 +60598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AE46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -65950,7 +63468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
